--- a/Filtered-DatesMaxInFinNew_FinalSubmed_Used.xlsx
+++ b/Filtered-DatesMaxInFinNew_FinalSubmed_Used.xlsx
@@ -1898,8 +1898,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -2006,7 +2007,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2023,7 +2024,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2226,17 +2235,17 @@
   <dimension ref="A1:V109"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1:V1"/>
+      <selection pane="topLeft" activeCell="V28" activeCellId="0" sqref="V28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="11.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="6.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="5.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="5.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="6.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="6.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="5.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="1" width="5.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="6.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="12.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="12.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="11.5"/>
@@ -2328,16 +2337,16 @@
       <c r="F2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="4" t="n">
         <v>0.480962592523455</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H2" s="4" t="n">
         <v>0.483334867545106</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="I2" s="4" t="n">
         <v>0.529183188463464</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -2355,25 +2364,25 @@
       <c r="O2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="1" t="n">
+      <c r="P2" s="4" t="n">
         <v>-1.1885</v>
       </c>
-      <c r="Q2" s="1" t="n">
+      <c r="Q2" s="4" t="n">
         <v>0.267077475786209</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="1" t="n">
+      <c r="S2" s="4" t="n">
         <v>0.30993926525116</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="1" t="n">
+      <c r="U2" s="4" t="n">
         <v>0.274751633405685</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="V2" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2396,16 +2405,16 @@
       <c r="F3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="4" t="n">
         <v>0.477782809543638</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="H3" s="4" t="n">
         <v>0.477908174159039</v>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="I3" s="4" t="n">
         <v>0.529183188463464</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -2423,25 +2432,25 @@
       <c r="O3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="1" t="n">
+      <c r="P3" s="4" t="n">
         <v>-1.5165</v>
       </c>
-      <c r="Q3" s="1" t="n">
+      <c r="Q3" s="4" t="n">
         <v>0.253795146942139</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="S3" s="1" t="n">
+      <c r="S3" s="4" t="n">
         <v>0.233092427253723</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="U3" s="1" t="n">
+      <c r="U3" s="4" t="n">
         <v>0.332670152187347</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="V3" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2464,16 +2473,16 @@
       <c r="F4" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="4" t="n">
         <v>0.609868266553016</v>
       </c>
-      <c r="H4" s="1" t="n">
+      <c r="H4" s="4" t="n">
         <v>0.676638645638163</v>
       </c>
-      <c r="I4" s="1" t="n">
+      <c r="I4" s="4" t="n">
         <v>0.529183188463464</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K4" s="1" t="s">
@@ -2491,25 +2500,25 @@
       <c r="O4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="1" t="n">
+      <c r="P4" s="4" t="n">
         <v>0.0583030303030303</v>
       </c>
-      <c r="Q4" s="1" t="n">
+      <c r="Q4" s="4" t="n">
         <v>0.274077713489533</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="S4" s="1" t="n">
+      <c r="S4" s="4" t="n">
         <v>0.275232315063477</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="T4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="U4" s="1" t="n">
+      <c r="U4" s="4" t="n">
         <v>0.203935623168945</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="V4" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2532,16 +2541,16 @@
       <c r="F5" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="4" t="n">
         <v>0.531913855360635</v>
       </c>
-      <c r="H5" s="1" t="n">
+      <c r="H5" s="4" t="n">
         <v>0.562790767660881</v>
       </c>
-      <c r="I5" s="1" t="n">
+      <c r="I5" s="4" t="n">
         <v>0.529183188463464</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K5" s="1" t="s">
@@ -2559,25 +2568,25 @@
       <c r="O5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P5" s="1" t="n">
+      <c r="P5" s="4" t="n">
         <v>-1.78366666666667</v>
       </c>
-      <c r="Q5" s="1" t="n">
+      <c r="Q5" s="4" t="n">
         <v>0.484894067049027</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="R5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="S5" s="1" t="n">
+      <c r="S5" s="4" t="n">
         <v>0.620252311229706</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="T5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="U5" s="1" t="n">
+      <c r="U5" s="4" t="n">
         <v>0.569544672966003</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="V5" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2600,16 +2609,16 @@
       <c r="F6" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="4" t="n">
         <v>0.490175106697224</v>
       </c>
-      <c r="H6" s="1" t="n">
+      <c r="H6" s="4" t="n">
         <v>0.495672674374307</v>
       </c>
-      <c r="I6" s="1" t="n">
+      <c r="I6" s="4" t="n">
         <v>0.529183188463464</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K6" s="1" t="s">
@@ -2627,25 +2636,25 @@
       <c r="O6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P6" s="1" t="n">
+      <c r="P6" s="4" t="n">
         <v>-0.0373333333333333</v>
       </c>
-      <c r="Q6" s="1" t="n">
+      <c r="Q6" s="4" t="n">
         <v>0.63787716627121</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="R6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="S6" s="1" t="n">
+      <c r="S6" s="4" t="n">
         <v>1.13456761837006</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="T6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="U6" s="1" t="n">
+      <c r="U6" s="4" t="n">
         <v>1.37001490592957</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="V6" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2668,16 +2677,16 @@
       <c r="F7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="G7" s="4" t="n">
         <v>0.52546121919041</v>
       </c>
-      <c r="H7" s="1" t="n">
+      <c r="H7" s="4" t="n">
         <v>0.548691124028135</v>
       </c>
-      <c r="I7" s="1" t="n">
+      <c r="I7" s="4" t="n">
         <v>0.529183188463464</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K7" s="1" t="s">
@@ -2695,25 +2704,25 @@
       <c r="O7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P7" s="1" t="n">
+      <c r="P7" s="4" t="n">
         <v>-1.51633333333333</v>
       </c>
-      <c r="Q7" s="1" t="n">
+      <c r="Q7" s="4" t="n">
         <v>0.22304293513298</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="R7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="S7" s="1" t="n">
+      <c r="S7" s="4" t="n">
         <v>0.45075136423111</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="T7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="U7" s="1" t="n">
+      <c r="U7" s="4" t="n">
         <v>0.690368115901947</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="V7" s="4" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2736,16 +2745,16 @@
       <c r="F8" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="G8" s="1" t="n">
+      <c r="G8" s="4" t="n">
         <v>0.340051697920651</v>
       </c>
-      <c r="H8" s="1" t="n">
+      <c r="H8" s="4" t="n">
         <v>0.367370994198428</v>
       </c>
-      <c r="I8" s="1" t="n">
+      <c r="I8" s="4" t="n">
         <v>0.529183188463464</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K8" s="1" t="s">
@@ -2763,25 +2772,25 @@
       <c r="O8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P8" s="1" t="n">
+      <c r="P8" s="4" t="n">
         <v>-0.690333333333333</v>
       </c>
-      <c r="Q8" s="1" t="n">
+      <c r="Q8" s="4" t="n">
         <v>0.375347346067429</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="R8" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="S8" s="1" t="n">
+      <c r="S8" s="4" t="n">
         <v>0.217801257967949</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="T8" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="U8" s="1" t="n">
+      <c r="U8" s="4" t="n">
         <v>0.256040006875992</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="V8" s="4" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2804,16 +2813,16 @@
       <c r="F9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="G9" s="1" t="n">
+      <c r="G9" s="4" t="n">
         <v>0.517940424408104</v>
       </c>
-      <c r="H9" s="1" t="n">
+      <c r="H9" s="4" t="n">
         <v>0.53665954838288</v>
       </c>
-      <c r="I9" s="1" t="n">
+      <c r="I9" s="4" t="n">
         <v>0.529183188463464</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K9" s="1" t="s">
@@ -2831,25 +2840,25 @@
       <c r="O9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P9" s="1" t="n">
+      <c r="P9" s="4" t="n">
         <v>-2.28425</v>
       </c>
-      <c r="Q9" s="1" t="n">
+      <c r="Q9" s="4" t="n">
         <v>-0.373441874980927</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="R9" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="S9" s="1" t="n">
+      <c r="S9" s="4" t="n">
         <v>-0.604544043540955</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="T9" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="U9" s="1" t="n">
+      <c r="U9" s="4" t="n">
         <v>-0.45063066482544</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="V9" s="4" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2872,16 +2881,16 @@
       <c r="F10" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="G10" s="1" t="n">
+      <c r="G10" s="4" t="n">
         <v>0.366302946613674</v>
       </c>
-      <c r="H10" s="1" t="n">
+      <c r="H10" s="4" t="n">
         <v>0.435919992069572</v>
       </c>
-      <c r="I10" s="1" t="n">
+      <c r="I10" s="4" t="n">
         <v>0.529183188463464</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K10" s="1" t="s">
@@ -2899,25 +2908,25 @@
       <c r="O10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P10" s="1" t="n">
+      <c r="P10" s="4" t="n">
         <v>0.846727272727273</v>
       </c>
-      <c r="Q10" s="1" t="n">
+      <c r="Q10" s="4" t="n">
         <v>-1.83215761184692</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="R10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="S10" s="1" t="n">
+      <c r="S10" s="4" t="n">
         <v>-1.70325696468353</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="T10" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="U10" s="1" t="n">
+      <c r="U10" s="4" t="n">
         <v>-1.75189447402954</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="V10" s="4" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2940,16 +2949,16 @@
       <c r="F11" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="G11" s="1" t="n">
+      <c r="G11" s="4" t="n">
         <v>0.526293351294558</v>
       </c>
-      <c r="H11" s="1" t="n">
+      <c r="H11" s="4" t="n">
         <v>0.561684357554157</v>
       </c>
-      <c r="I11" s="1" t="n">
+      <c r="I11" s="4" t="n">
         <v>0.529183188463464</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K11" s="1" t="s">
@@ -2967,25 +2976,25 @@
       <c r="O11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P11" s="1" t="n">
+      <c r="P11" s="4" t="n">
         <v>-0.29525</v>
       </c>
-      <c r="Q11" s="1" t="n">
+      <c r="Q11" s="4" t="n">
         <v>0.505360960960388</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="R11" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="S11" s="1" t="n">
+      <c r="S11" s="4" t="n">
         <v>0.560909688472748</v>
       </c>
-      <c r="T11" s="1" t="s">
+      <c r="T11" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="U11" s="1" t="n">
+      <c r="U11" s="4" t="n">
         <v>0.730986833572388</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="V11" s="4" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3008,16 +3017,16 @@
       <c r="F12" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="G12" s="1" t="n">
+      <c r="G12" s="4" t="n">
         <v>0.566030295107102</v>
       </c>
-      <c r="H12" s="1" t="n">
+      <c r="H12" s="4" t="n">
         <v>0.617871693513865</v>
       </c>
-      <c r="I12" s="1" t="n">
+      <c r="I12" s="4" t="n">
         <v>0.529183188463464</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K12" s="1" t="s">
@@ -3035,25 +3044,25 @@
       <c r="O12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P12" s="1" t="n">
+      <c r="P12" s="4" t="n">
         <v>-0.72</v>
       </c>
-      <c r="Q12" s="1" t="n">
+      <c r="Q12" s="4" t="n">
         <v>0.85468727350235</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="R12" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="S12" s="1" t="n">
+      <c r="S12" s="4" t="n">
         <v>0.797548353672028</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="T12" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="U12" s="1" t="n">
+      <c r="U12" s="4" t="n">
         <v>0.83534187078476</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="V12" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3076,16 +3085,16 @@
       <c r="F13" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="G13" s="1" t="n">
+      <c r="G13" s="4" t="n">
         <v>0.361765027749554</v>
       </c>
-      <c r="H13" s="1" t="n">
+      <c r="H13" s="4" t="n">
         <v>0.435519231393939</v>
       </c>
-      <c r="I13" s="1" t="n">
+      <c r="I13" s="4" t="n">
         <v>0.529183188463464</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K13" s="1" t="s">
@@ -3103,25 +3112,25 @@
       <c r="O13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P13" s="1" t="n">
+      <c r="P13" s="4" t="n">
         <v>0.0402692307692308</v>
       </c>
-      <c r="Q13" s="1" t="n">
+      <c r="Q13" s="4" t="n">
         <v>0.254835426807404</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="R13" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="S13" s="1" t="n">
+      <c r="S13" s="4" t="n">
         <v>0.215983733534813</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="T13" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="U13" s="1" t="n">
+      <c r="U13" s="4" t="n">
         <v>0.150839984416962</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="V13" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3144,16 +3153,16 @@
       <c r="F14" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G14" s="1" t="n">
+      <c r="G14" s="4" t="n">
         <v>0.478629841110159</v>
       </c>
-      <c r="H14" s="1" t="n">
+      <c r="H14" s="4" t="n">
         <v>0.479759483510384</v>
       </c>
-      <c r="I14" s="1" t="n">
+      <c r="I14" s="4" t="n">
         <v>0.529183188463464</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K14" s="1" t="s">
@@ -3171,25 +3180,25 @@
       <c r="O14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="1" t="n">
+      <c r="P14" s="4" t="n">
         <v>-1.1475</v>
       </c>
-      <c r="Q14" s="1" t="n">
+      <c r="Q14" s="4" t="n">
         <v>0.193147525191307</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="R14" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="S14" s="1" t="n">
+      <c r="S14" s="4" t="n">
         <v>0.229654029011726</v>
       </c>
-      <c r="T14" s="1" t="s">
+      <c r="T14" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="U14" s="1" t="n">
+      <c r="U14" s="4" t="n">
         <v>0.191733077168465</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="V14" s="4" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3212,16 +3221,16 @@
       <c r="F15" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="G15" s="1" t="n">
+      <c r="G15" s="4" t="n">
         <v>0.516728029944483</v>
       </c>
-      <c r="H15" s="1" t="n">
+      <c r="H15" s="4" t="n">
         <v>0.557030405598102</v>
       </c>
-      <c r="I15" s="1" t="n">
+      <c r="I15" s="4" t="n">
         <v>0.529183188463464</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K15" s="1" t="s">
@@ -3239,25 +3248,25 @@
       <c r="O15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P15" s="1" t="n">
+      <c r="P15" s="4" t="n">
         <v>-2.20872727272727</v>
       </c>
-      <c r="Q15" s="1" t="n">
+      <c r="Q15" s="4" t="n">
         <v>0.711660504341126</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="R15" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="S15" s="1" t="n">
+      <c r="S15" s="4" t="n">
         <v>0.926338195800781</v>
       </c>
-      <c r="T15" s="1" t="s">
+      <c r="T15" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="U15" s="1" t="n">
+      <c r="U15" s="4" t="n">
         <v>1.07706797122955</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="V15" s="4" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3280,16 +3289,16 @@
       <c r="F16" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="G16" s="1" t="n">
+      <c r="G16" s="4" t="n">
         <v>0.533903989666357</v>
       </c>
-      <c r="H16" s="1" t="n">
+      <c r="H16" s="4" t="n">
         <v>0.579644188871257</v>
       </c>
-      <c r="I16" s="1" t="n">
+      <c r="I16" s="4" t="n">
         <v>0.529183188463464</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K16" s="1" t="s">
@@ -3307,25 +3316,25 @@
       <c r="O16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P16" s="1" t="n">
+      <c r="P16" s="4" t="n">
         <v>0.548</v>
       </c>
-      <c r="Q16" s="1" t="n">
+      <c r="Q16" s="4" t="n">
         <v>-1.65896666049957</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="R16" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="S16" s="1" t="n">
+      <c r="S16" s="4" t="n">
         <v>-1.59786546230316</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="T16" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="U16" s="1" t="n">
+      <c r="U16" s="4" t="n">
         <v>-1.70270812511444</v>
       </c>
-      <c r="V16" s="1" t="s">
+      <c r="V16" s="4" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3348,16 +3357,16 @@
       <c r="F17" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="G17" s="1" t="n">
+      <c r="G17" s="4" t="n">
         <v>0.343005532314455</v>
       </c>
-      <c r="H17" s="1" t="n">
+      <c r="H17" s="4" t="n">
         <v>0.406304382819234</v>
       </c>
-      <c r="I17" s="1" t="n">
+      <c r="I17" s="4" t="n">
         <v>0.529183188463464</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K17" s="1" t="s">
@@ -3375,25 +3384,25 @@
       <c r="O17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P17" s="1" t="n">
+      <c r="P17" s="4" t="n">
         <v>0.753833333333333</v>
       </c>
-      <c r="Q17" s="1" t="n">
+      <c r="Q17" s="4" t="n">
         <v>-1.60842299461365</v>
       </c>
-      <c r="R17" s="1" t="s">
+      <c r="R17" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="S17" s="1" t="n">
+      <c r="S17" s="4" t="n">
         <v>-1.71648812294006</v>
       </c>
-      <c r="T17" s="1" t="s">
+      <c r="T17" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="U17" s="1" t="n">
+      <c r="U17" s="4" t="n">
         <v>-1.83497262001038</v>
       </c>
-      <c r="V17" s="1" t="s">
+      <c r="V17" s="4" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3416,16 +3425,16 @@
       <c r="F18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G18" s="1" t="n">
+      <c r="G18" s="4" t="n">
         <v>0.480226325214816</v>
       </c>
-      <c r="H18" s="1" t="n">
+      <c r="H18" s="4" t="n">
         <v>0.481329706849416</v>
       </c>
-      <c r="I18" s="1" t="n">
+      <c r="I18" s="4" t="n">
         <v>0.529183188463464</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K18" s="1" t="s">
@@ -3443,25 +3452,25 @@
       <c r="O18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P18" s="1" t="n">
+      <c r="P18" s="4" t="n">
         <v>-1.74</v>
       </c>
-      <c r="Q18" s="1" t="n">
+      <c r="Q18" s="4" t="n">
         <v>-0.431477278470993</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="R18" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="S18" s="1" t="n">
+      <c r="S18" s="4" t="n">
         <v>-0.166424453258514</v>
       </c>
-      <c r="T18" s="1" t="s">
+      <c r="T18" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="U18" s="1" t="n">
+      <c r="U18" s="4" t="n">
         <v>-0.370574504137039</v>
       </c>
-      <c r="V18" s="1" t="s">
+      <c r="V18" s="4" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3484,16 +3493,16 @@
       <c r="F19" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G19" s="1" t="n">
+      <c r="G19" s="4" t="n">
         <v>0.499898117060571</v>
       </c>
-      <c r="H19" s="1" t="n">
+      <c r="H19" s="4" t="n">
         <v>0.510699995425154</v>
       </c>
-      <c r="I19" s="1" t="n">
+      <c r="I19" s="4" t="n">
         <v>0.529183188463464</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J19" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K19" s="1" t="s">
@@ -3511,25 +3520,25 @@
       <c r="O19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P19" s="1" t="n">
+      <c r="P19" s="4" t="n">
         <v>-0.828666666666667</v>
       </c>
-      <c r="Q19" s="1" t="n">
+      <c r="Q19" s="4" t="n">
         <v>-0.0713791623711586</v>
       </c>
-      <c r="R19" s="1" t="s">
+      <c r="R19" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="S19" s="1" t="n">
+      <c r="S19" s="4" t="n">
         <v>0.135139554738998</v>
       </c>
-      <c r="T19" s="1" t="s">
+      <c r="T19" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="U19" s="1" t="n">
+      <c r="U19" s="4" t="n">
         <v>0.0783409327268601</v>
       </c>
-      <c r="V19" s="1" t="s">
+      <c r="V19" s="4" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3552,16 +3561,16 @@
       <c r="F20" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="G20" s="1" t="n">
+      <c r="G20" s="4" t="n">
         <v>0.66245284466667</v>
       </c>
-      <c r="H20" s="1" t="n">
+      <c r="H20" s="4" t="n">
         <v>0.749476115319498</v>
       </c>
-      <c r="I20" s="1" t="n">
+      <c r="I20" s="4" t="n">
         <v>0.529183188463464</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J20" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K20" s="1" t="s">
@@ -3579,25 +3588,25 @@
       <c r="O20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P20" s="1" t="n">
+      <c r="P20" s="4" t="n">
         <v>0.311277777777778</v>
       </c>
-      <c r="Q20" s="1" t="n">
+      <c r="Q20" s="4" t="n">
         <v>-0.154569953680039</v>
       </c>
-      <c r="R20" s="1" t="s">
+      <c r="R20" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S20" s="1" t="n">
+      <c r="S20" s="4" t="n">
         <v>-0.0444789677858353</v>
       </c>
-      <c r="T20" s="1" t="s">
+      <c r="T20" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="U20" s="1" t="n">
+      <c r="U20" s="4" t="n">
         <v>0.180836260318756</v>
       </c>
-      <c r="V20" s="1" t="s">
+      <c r="V20" s="4" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3620,16 +3629,16 @@
       <c r="F21" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="G21" s="1" t="n">
+      <c r="G21" s="4" t="n">
         <v>0.350206963790578</v>
       </c>
-      <c r="H21" s="1" t="n">
+      <c r="H21" s="4" t="n">
         <v>0.390032608072008</v>
       </c>
-      <c r="I21" s="1" t="n">
+      <c r="I21" s="4" t="n">
         <v>0.529183188463464</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="J21" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K21" s="1" t="s">
@@ -3647,25 +3656,25 @@
       <c r="O21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P21" s="1" t="n">
+      <c r="P21" s="4" t="n">
         <v>-0.889875</v>
       </c>
-      <c r="Q21" s="1" t="n">
+      <c r="Q21" s="4" t="n">
         <v>-0.0243921540677548</v>
       </c>
-      <c r="R21" s="1" t="s">
+      <c r="R21" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="S21" s="1" t="n">
+      <c r="S21" s="4" t="n">
         <v>-0.002756581408903</v>
       </c>
-      <c r="T21" s="1" t="s">
+      <c r="T21" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="U21" s="1" t="n">
+      <c r="U21" s="4" t="n">
         <v>-0.168848678469658</v>
       </c>
-      <c r="V21" s="1" t="s">
+      <c r="V21" s="4" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3688,16 +3697,16 @@
       <c r="F22" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="G22" s="1" t="n">
+      <c r="G22" s="4" t="n">
         <v>0.514047605485533</v>
       </c>
-      <c r="H22" s="1" t="n">
+      <c r="H22" s="4" t="n">
         <v>0.538135743789251</v>
       </c>
-      <c r="I22" s="1" t="n">
+      <c r="I22" s="4" t="n">
         <v>0.529183188463464</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="J22" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K22" s="1" t="s">
@@ -3715,25 +3724,25 @@
       <c r="O22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P22" s="1" t="n">
+      <c r="P22" s="4" t="n">
         <v>0.0825555555555556</v>
       </c>
-      <c r="Q22" s="1" t="n">
+      <c r="Q22" s="4" t="n">
         <v>-0.0394765064120293</v>
       </c>
-      <c r="R22" s="1" t="s">
+      <c r="R22" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="S22" s="1" t="n">
+      <c r="S22" s="4" t="n">
         <v>0.141477271914482</v>
       </c>
-      <c r="T22" s="1" t="s">
+      <c r="T22" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="U22" s="1" t="n">
+      <c r="U22" s="4" t="n">
         <v>0.21031354367733</v>
       </c>
-      <c r="V22" s="1" t="s">
+      <c r="V22" s="4" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3756,16 +3765,16 @@
       <c r="F23" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="G23" s="1" t="n">
+      <c r="G23" s="4" t="n">
         <v>0.554626484030361</v>
       </c>
-      <c r="H23" s="1" t="n">
+      <c r="H23" s="4" t="n">
         <v>0.622092700867195</v>
       </c>
-      <c r="I23" s="1" t="n">
+      <c r="I23" s="4" t="n">
         <v>0.529183188463464</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="J23" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K23" s="1" t="s">
@@ -3783,25 +3792,25 @@
       <c r="O23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P23" s="1" t="n">
+      <c r="P23" s="4" t="n">
         <v>1.81892857142857</v>
       </c>
-      <c r="Q23" s="1" t="n">
+      <c r="Q23" s="4" t="n">
         <v>1.19382309913635</v>
       </c>
-      <c r="R23" s="1" t="s">
+      <c r="R23" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="S23" s="1" t="n">
+      <c r="S23" s="4" t="n">
         <v>1.27216267585754</v>
       </c>
-      <c r="T23" s="1" t="s">
+      <c r="T23" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="U23" s="1" t="n">
+      <c r="U23" s="4" t="n">
         <v>1.36458778381348</v>
       </c>
-      <c r="V23" s="1" t="s">
+      <c r="V23" s="4" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3824,16 +3833,16 @@
       <c r="F24" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="G24" s="1" t="n">
+      <c r="G24" s="4" t="n">
         <v>0.518619721613506</v>
       </c>
-      <c r="H24" s="1" t="n">
+      <c r="H24" s="4" t="n">
         <v>0.545639182842672</v>
       </c>
-      <c r="I24" s="1" t="n">
+      <c r="I24" s="4" t="n">
         <v>0.529183188463464</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="J24" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K24" s="1" t="s">
@@ -3851,25 +3860,25 @@
       <c r="O24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P24" s="1" t="n">
+      <c r="P24" s="4" t="n">
         <v>0.581666666666667</v>
       </c>
-      <c r="Q24" s="1" t="n">
+      <c r="Q24" s="4" t="n">
         <v>1.50036096572876</v>
       </c>
-      <c r="R24" s="1" t="s">
+      <c r="R24" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="S24" s="1" t="n">
+      <c r="S24" s="4" t="n">
         <v>1.27822303771973</v>
       </c>
-      <c r="T24" s="1" t="s">
+      <c r="T24" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="U24" s="1" t="n">
+      <c r="U24" s="4" t="n">
         <v>1.73339343070984</v>
       </c>
-      <c r="V24" s="1" t="s">
+      <c r="V24" s="4" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3892,16 +3901,16 @@
       <c r="F25" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="G25" s="1" t="n">
+      <c r="G25" s="4" t="n">
         <v>0.623702234884711</v>
       </c>
-      <c r="H25" s="1" t="n">
+      <c r="H25" s="4" t="n">
         <v>0.778015606168209</v>
       </c>
-      <c r="I25" s="1" t="n">
+      <c r="I25" s="4" t="n">
         <v>0.529183188463464</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="J25" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K25" s="1" t="s">
@@ -3919,25 +3928,25 @@
       <c r="O25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P25" s="1" t="n">
+      <c r="P25" s="4" t="n">
         <v>0.606446428571429</v>
       </c>
-      <c r="Q25" s="1" t="n">
+      <c r="Q25" s="4" t="n">
         <v>1.77304601669312</v>
       </c>
-      <c r="R25" s="1" t="s">
+      <c r="R25" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="S25" s="1" t="n">
+      <c r="S25" s="4" t="n">
         <v>1.88097977638245</v>
       </c>
-      <c r="T25" s="1" t="s">
+      <c r="T25" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="U25" s="1" t="n">
+      <c r="U25" s="4" t="n">
         <v>1.83385062217712</v>
       </c>
-      <c r="V25" s="1" t="s">
+      <c r="V25" s="4" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3960,16 +3969,16 @@
       <c r="F26" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="G26" s="1" t="n">
+      <c r="G26" s="4" t="n">
         <v>0.571618713972527</v>
       </c>
-      <c r="H26" s="1" t="n">
+      <c r="H26" s="4" t="n">
         <v>0.640544005364881</v>
       </c>
-      <c r="I26" s="1" t="n">
+      <c r="I26" s="4" t="n">
         <v>0.529183188463464</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="J26" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K26" s="1" t="s">
@@ -3987,25 +3996,25 @@
       <c r="O26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P26" s="1" t="n">
+      <c r="P26" s="4" t="n">
         <v>0.196104166666667</v>
       </c>
-      <c r="Q26" s="1" t="n">
+      <c r="Q26" s="4" t="n">
         <v>-0.194331780076027</v>
       </c>
-      <c r="R26" s="1" t="s">
+      <c r="R26" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="S26" s="1" t="n">
+      <c r="S26" s="4" t="n">
         <v>-0.399852693080902</v>
       </c>
-      <c r="T26" s="1" t="s">
+      <c r="T26" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="U26" s="1" t="n">
+      <c r="U26" s="4" t="n">
         <v>-0.360245257616043</v>
       </c>
-      <c r="V26" s="1" t="s">
+      <c r="V26" s="4" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4028,16 +4037,16 @@
       <c r="F27" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G27" s="1" t="n">
+      <c r="G27" s="4" t="n">
         <v>0.279996704034326</v>
       </c>
-      <c r="H27" s="1" t="n">
+      <c r="H27" s="4" t="n">
         <v>0.279996704034326</v>
       </c>
-      <c r="I27" s="1" t="n">
+      <c r="I27" s="4" t="n">
         <v>0.529183188463464</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="J27" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K27" s="1" t="s">
@@ -4055,25 +4064,25 @@
       <c r="O27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P27" s="1" t="n">
+      <c r="P27" s="4" t="n">
         <v>0.723</v>
       </c>
-      <c r="Q27" s="1" t="n">
+      <c r="Q27" s="4" t="n">
         <v>-0.887037694454193</v>
       </c>
-      <c r="R27" s="1" t="s">
+      <c r="R27" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="S27" s="1" t="n">
+      <c r="S27" s="4" t="n">
         <v>-0.699483215808868</v>
       </c>
-      <c r="T27" s="1" t="s">
+      <c r="T27" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="U27" s="1" t="n">
+      <c r="U27" s="4" t="n">
         <v>-0.658670663833618</v>
       </c>
-      <c r="V27" s="1" t="s">
+      <c r="V27" s="4" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4096,16 +4105,16 @@
       <c r="F28" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G28" s="1" t="n">
+      <c r="G28" s="4" t="n">
         <v>0.270854662055453</v>
       </c>
-      <c r="H28" s="1" t="n">
+      <c r="H28" s="4" t="n">
         <v>0.307290739840018</v>
       </c>
-      <c r="I28" s="1" t="n">
+      <c r="I28" s="4" t="n">
         <v>0.497338764573312</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="J28" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K28" s="1" t="s">
@@ -4123,9 +4132,15 @@
       <c r="O28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P28" s="1" t="n">
+      <c r="P28" s="4" t="n">
         <v>2.50266666666667</v>
       </c>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="n">
@@ -4146,16 +4161,16 @@
       <c r="F29" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G29" s="1" t="n">
+      <c r="G29" s="4" t="n">
         <v>0.44500088698009</v>
       </c>
-      <c r="H29" s="1" t="n">
+      <c r="H29" s="4" t="n">
         <v>0.44500088698009</v>
       </c>
-      <c r="I29" s="1" t="n">
+      <c r="I29" s="4" t="n">
         <v>0.497338764573312</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="J29" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K29" s="1" t="s">
@@ -4173,25 +4188,25 @@
       <c r="O29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P29" s="1" t="n">
+      <c r="P29" s="4" t="n">
         <v>2.65</v>
       </c>
-      <c r="Q29" s="1" t="n">
+      <c r="Q29" s="4" t="n">
         <v>-1.05225133895874</v>
       </c>
-      <c r="R29" s="1" t="s">
+      <c r="R29" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="S29" s="1" t="n">
+      <c r="S29" s="4" t="n">
         <v>-1.05209159851074</v>
       </c>
-      <c r="T29" s="1" t="s">
+      <c r="T29" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="U29" s="1" t="n">
+      <c r="U29" s="4" t="n">
         <v>-0.784452199935913</v>
       </c>
-      <c r="V29" s="1" t="s">
+      <c r="V29" s="4" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4214,16 +4229,16 @@
       <c r="F30" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="G30" s="1" t="n">
+      <c r="G30" s="4" t="n">
         <v>0.553360027902535</v>
       </c>
-      <c r="H30" s="1" t="n">
+      <c r="H30" s="4" t="n">
         <v>0.632341296574589</v>
       </c>
-      <c r="I30" s="1" t="n">
+      <c r="I30" s="4" t="n">
         <v>0.497338764573312</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="J30" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K30" s="1" t="s">
@@ -4241,25 +4256,25 @@
       <c r="O30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P30" s="1" t="n">
+      <c r="P30" s="4" t="n">
         <v>2.01557142857143</v>
       </c>
-      <c r="Q30" s="1" t="n">
+      <c r="Q30" s="4" t="n">
         <v>-0.727363765239716</v>
       </c>
-      <c r="R30" s="1" t="s">
+      <c r="R30" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="S30" s="1" t="n">
+      <c r="S30" s="4" t="n">
         <v>-1.03330743312836</v>
       </c>
-      <c r="T30" s="1" t="s">
+      <c r="T30" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="U30" s="1" t="n">
+      <c r="U30" s="4" t="n">
         <v>-0.761296033859253</v>
       </c>
-      <c r="V30" s="1" t="s">
+      <c r="V30" s="4" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4282,16 +4297,16 @@
       <c r="F31" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="G31" s="1" t="n">
+      <c r="G31" s="4" t="n">
         <v>0.455995183308354</v>
       </c>
-      <c r="H31" s="1" t="n">
+      <c r="H31" s="4" t="n">
         <v>0.462898302207458</v>
       </c>
-      <c r="I31" s="1" t="n">
+      <c r="I31" s="4" t="n">
         <v>0.497338764573312</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="J31" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K31" s="1" t="s">
@@ -4309,25 +4324,25 @@
       <c r="O31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P31" s="1" t="n">
+      <c r="P31" s="4" t="n">
         <v>-1.37283333333333</v>
       </c>
-      <c r="Q31" s="1" t="n">
+      <c r="Q31" s="4" t="n">
         <v>-0.584251463413239</v>
       </c>
-      <c r="R31" s="1" t="s">
+      <c r="R31" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="S31" s="1" t="n">
+      <c r="S31" s="4" t="n">
         <v>-0.422447443008423</v>
       </c>
-      <c r="T31" s="1" t="s">
+      <c r="T31" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="U31" s="1" t="n">
+      <c r="U31" s="4" t="n">
         <v>-0.180216759443283</v>
       </c>
-      <c r="V31" s="1" t="s">
+      <c r="V31" s="4" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4350,16 +4365,16 @@
       <c r="F32" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G32" s="1" t="n">
+      <c r="G32" s="4" t="n">
         <v>0.449125825006385</v>
       </c>
-      <c r="H32" s="1" t="n">
+      <c r="H32" s="4" t="n">
         <v>0.453968247215384</v>
       </c>
-      <c r="I32" s="1" t="n">
+      <c r="I32" s="4" t="n">
         <v>0.497338764573312</v>
       </c>
-      <c r="J32" s="4" t="s">
+      <c r="J32" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K32" s="1" t="s">
@@ -4377,25 +4392,25 @@
       <c r="O32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P32" s="1" t="n">
+      <c r="P32" s="4" t="n">
         <v>1.34775</v>
       </c>
-      <c r="Q32" s="1" t="n">
+      <c r="Q32" s="4" t="n">
         <v>0.384804546833038</v>
       </c>
-      <c r="R32" s="1" t="s">
+      <c r="R32" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="S32" s="1" t="n">
+      <c r="S32" s="4" t="n">
         <v>0.353236466646195</v>
       </c>
-      <c r="T32" s="1" t="s">
+      <c r="T32" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="U32" s="1" t="n">
+      <c r="U32" s="4" t="n">
         <v>0.232423409819603</v>
       </c>
-      <c r="V32" s="1" t="s">
+      <c r="V32" s="4" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4418,16 +4433,16 @@
       <c r="F33" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G33" s="1" t="n">
+      <c r="G33" s="4" t="n">
         <v>0.26046944004854</v>
       </c>
-      <c r="H33" s="1" t="n">
+      <c r="H33" s="4" t="n">
         <v>0.278084416217576</v>
       </c>
-      <c r="I33" s="1" t="n">
+      <c r="I33" s="4" t="n">
         <v>0.497338764573312</v>
       </c>
-      <c r="J33" s="4" t="s">
+      <c r="J33" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K33" s="1" t="s">
@@ -4445,25 +4460,25 @@
       <c r="O33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P33" s="1" t="n">
+      <c r="P33" s="4" t="n">
         <v>2.11975</v>
       </c>
-      <c r="Q33" s="1" t="n">
+      <c r="Q33" s="4" t="n">
         <v>-1.83215761184692</v>
       </c>
-      <c r="R33" s="1" t="s">
+      <c r="R33" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="S33" s="1" t="n">
+      <c r="S33" s="4" t="n">
         <v>-1.70325696468353</v>
       </c>
-      <c r="T33" s="1" t="s">
+      <c r="T33" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="U33" s="1" t="n">
+      <c r="U33" s="4" t="n">
         <v>-1.75189447402954</v>
       </c>
-      <c r="V33" s="1" t="s">
+      <c r="V33" s="4" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4486,16 +4501,16 @@
       <c r="F34" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="G34" s="1" t="n">
+      <c r="G34" s="4" t="n">
         <v>0.466813376813208</v>
       </c>
-      <c r="H34" s="1" t="n">
+      <c r="H34" s="4" t="n">
         <v>0.478642883313208</v>
       </c>
-      <c r="I34" s="1" t="n">
+      <c r="I34" s="4" t="n">
         <v>0.497338764573312</v>
       </c>
-      <c r="J34" s="4" t="s">
+      <c r="J34" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K34" s="1" t="s">
@@ -4513,25 +4528,25 @@
       <c r="O34" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P34" s="1" t="n">
+      <c r="P34" s="4" t="n">
         <v>-1.06242857142857</v>
       </c>
-      <c r="Q34" s="1" t="n">
+      <c r="Q34" s="4" t="n">
         <v>0.454188048839569</v>
       </c>
-      <c r="R34" s="1" t="s">
+      <c r="R34" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="S34" s="1" t="n">
+      <c r="S34" s="4" t="n">
         <v>0.426552891731262</v>
       </c>
-      <c r="T34" s="1" t="s">
+      <c r="T34" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="U34" s="1" t="n">
+      <c r="U34" s="4" t="n">
         <v>0.413240939378738</v>
       </c>
-      <c r="V34" s="1" t="s">
+      <c r="V34" s="4" t="s">
         <v>202</v>
       </c>
     </row>
@@ -4554,16 +4569,16 @@
       <c r="F35" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="G35" s="1" t="n">
+      <c r="G35" s="4" t="n">
         <v>0.484957655551261</v>
       </c>
-      <c r="H35" s="1" t="n">
+      <c r="H35" s="4" t="n">
         <v>0.504675893080443</v>
       </c>
-      <c r="I35" s="1" t="n">
+      <c r="I35" s="4" t="n">
         <v>0.497338764573312</v>
       </c>
-      <c r="J35" s="4" t="s">
+      <c r="J35" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K35" s="1" t="s">
@@ -4581,25 +4596,25 @@
       <c r="O35" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P35" s="1" t="n">
+      <c r="P35" s="4" t="n">
         <v>1.36109090909091</v>
       </c>
-      <c r="Q35" s="1" t="n">
+      <c r="Q35" s="4" t="n">
         <v>0.538597822189331</v>
       </c>
-      <c r="R35" s="1" t="s">
+      <c r="R35" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="S35" s="1" t="n">
+      <c r="S35" s="4" t="n">
         <v>0.640925526618958</v>
       </c>
-      <c r="T35" s="1" t="s">
+      <c r="T35" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="U35" s="1" t="n">
+      <c r="U35" s="4" t="n">
         <v>0.811482191085815</v>
       </c>
-      <c r="V35" s="1" t="s">
+      <c r="V35" s="4" t="s">
         <v>208</v>
       </c>
     </row>
@@ -4622,16 +4637,16 @@
       <c r="F36" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="G36" s="1" t="n">
+      <c r="G36" s="4" t="n">
         <v>0.532266649107352</v>
       </c>
-      <c r="H36" s="1" t="n">
+      <c r="H36" s="4" t="n">
         <v>0.628328259714192</v>
       </c>
-      <c r="I36" s="1" t="n">
+      <c r="I36" s="4" t="n">
         <v>0.497338764573312</v>
       </c>
-      <c r="J36" s="4" t="s">
+      <c r="J36" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K36" s="1" t="s">
@@ -4649,25 +4664,25 @@
       <c r="O36" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P36" s="1" t="n">
+      <c r="P36" s="4" t="n">
         <v>-0.319314285714286</v>
       </c>
-      <c r="Q36" s="1" t="n">
+      <c r="Q36" s="4" t="n">
         <v>0.903877913951874</v>
       </c>
-      <c r="R36" s="1" t="s">
+      <c r="R36" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="S36" s="1" t="n">
+      <c r="S36" s="4" t="n">
         <v>0.788174033164978</v>
       </c>
-      <c r="T36" s="1" t="s">
+      <c r="T36" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="U36" s="1" t="n">
+      <c r="U36" s="4" t="n">
         <v>0.822921872138977</v>
       </c>
-      <c r="V36" s="1" t="s">
+      <c r="V36" s="4" t="s">
         <v>214</v>
       </c>
     </row>
@@ -4690,16 +4705,16 @@
       <c r="F37" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G37" s="1" t="n">
+      <c r="G37" s="4" t="n">
         <v>0.458242806650672</v>
       </c>
-      <c r="H37" s="1" t="n">
+      <c r="H37" s="4" t="n">
         <v>0.464543455984672</v>
       </c>
-      <c r="I37" s="1" t="n">
+      <c r="I37" s="4" t="n">
         <v>0.497338764573312</v>
       </c>
-      <c r="J37" s="4" t="s">
+      <c r="J37" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K37" s="1" t="s">
@@ -4717,25 +4732,25 @@
       <c r="O37" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P37" s="1" t="n">
+      <c r="P37" s="4" t="n">
         <v>-1.4355</v>
       </c>
-      <c r="Q37" s="1" t="n">
+      <c r="Q37" s="4" t="n">
         <v>-0.322934180498123</v>
       </c>
-      <c r="R37" s="1" t="s">
+      <c r="R37" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="S37" s="1" t="n">
+      <c r="S37" s="4" t="n">
         <v>-0.518984615802765</v>
       </c>
-      <c r="T37" s="1" t="s">
+      <c r="T37" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="U37" s="1" t="n">
+      <c r="U37" s="4" t="n">
         <v>-0.431259989738464</v>
       </c>
-      <c r="V37" s="1" t="s">
+      <c r="V37" s="4" t="s">
         <v>220</v>
       </c>
     </row>
@@ -4758,16 +4773,16 @@
       <c r="F38" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="G38" s="1" t="n">
+      <c r="G38" s="4" t="n">
         <v>0.615458763233331</v>
       </c>
-      <c r="H38" s="1" t="n">
+      <c r="H38" s="4" t="n">
         <v>0.820136921797409</v>
       </c>
-      <c r="I38" s="1" t="n">
+      <c r="I38" s="4" t="n">
         <v>0.497338764573312</v>
       </c>
-      <c r="J38" s="4" t="s">
+      <c r="J38" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K38" s="1" t="s">
@@ -4785,25 +4800,25 @@
       <c r="O38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P38" s="1" t="n">
+      <c r="P38" s="4" t="n">
         <v>-0.0197808219178082</v>
       </c>
-      <c r="Q38" s="1" t="n">
+      <c r="Q38" s="4" t="n">
         <v>0.313751071691513</v>
       </c>
-      <c r="R38" s="1" t="s">
+      <c r="R38" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="S38" s="1" t="n">
+      <c r="S38" s="4" t="n">
         <v>0.221112921833992</v>
       </c>
-      <c r="T38" s="1" t="s">
+      <c r="T38" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="U38" s="1" t="n">
+      <c r="U38" s="4" t="n">
         <v>0.194629967212677</v>
       </c>
-      <c r="V38" s="1" t="s">
+      <c r="V38" s="4" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4826,16 +4841,16 @@
       <c r="F39" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="G39" s="1" t="n">
+      <c r="G39" s="4" t="n">
         <v>0.484811501282908</v>
       </c>
-      <c r="H39" s="1" t="n">
+      <c r="H39" s="4" t="n">
         <v>0.513450652970408</v>
       </c>
-      <c r="I39" s="1" t="n">
+      <c r="I39" s="4" t="n">
         <v>0.497338764573312</v>
       </c>
-      <c r="J39" s="4" t="s">
+      <c r="J39" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K39" s="1" t="s">
@@ -4853,25 +4868,25 @@
       <c r="O39" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P39" s="1" t="n">
+      <c r="P39" s="4" t="n">
         <v>1.94188888888889</v>
       </c>
-      <c r="Q39" s="1" t="n">
+      <c r="Q39" s="4" t="n">
         <v>0.615933120250702</v>
       </c>
-      <c r="R39" s="1" t="s">
+      <c r="R39" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="S39" s="1" t="n">
+      <c r="S39" s="4" t="n">
         <v>0.567486524581909</v>
       </c>
-      <c r="T39" s="1" t="s">
+      <c r="T39" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="U39" s="1" t="n">
+      <c r="U39" s="4" t="n">
         <v>0.701066255569458</v>
       </c>
-      <c r="V39" s="1" t="s">
+      <c r="V39" s="4" t="s">
         <v>232</v>
       </c>
     </row>
@@ -4894,16 +4909,16 @@
       <c r="F40" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="G40" s="1" t="n">
+      <c r="G40" s="4" t="n">
         <v>0.221704381619778</v>
       </c>
-      <c r="H40" s="1" t="n">
+      <c r="H40" s="4" t="n">
         <v>0.227881615375221</v>
       </c>
-      <c r="I40" s="1" t="n">
+      <c r="I40" s="4" t="n">
         <v>0.497338764573312</v>
       </c>
-      <c r="J40" s="5" t="s">
+      <c r="J40" s="7" t="s">
         <v>236</v>
       </c>
       <c r="K40" s="1" t="s">
@@ -4921,25 +4936,25 @@
       <c r="O40" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P40" s="1" t="n">
+      <c r="P40" s="4" t="n">
         <v>0.351</v>
       </c>
-      <c r="Q40" s="1" t="n">
+      <c r="Q40" s="4" t="n">
         <v>-2.10127019882202</v>
       </c>
-      <c r="R40" s="1" t="s">
+      <c r="R40" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="S40" s="1" t="n">
+      <c r="S40" s="4" t="n">
         <v>-1.66883385181427</v>
       </c>
-      <c r="T40" s="1" t="s">
+      <c r="T40" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="U40" s="1" t="n">
+      <c r="U40" s="4" t="n">
         <v>-1.67767608165741</v>
       </c>
-      <c r="V40" s="1" t="s">
+      <c r="V40" s="4" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4962,16 +4977,16 @@
       <c r="F41" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G41" s="1" t="n">
+      <c r="G41" s="4" t="n">
         <v>0.251793334383343</v>
       </c>
-      <c r="H41" s="1" t="n">
+      <c r="H41" s="4" t="n">
         <v>0.28326243685436</v>
       </c>
-      <c r="I41" s="1" t="n">
+      <c r="I41" s="4" t="n">
         <v>0.497338764573312</v>
       </c>
-      <c r="J41" s="4" t="s">
+      <c r="J41" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K41" s="1" t="s">
@@ -4989,25 +5004,25 @@
       <c r="O41" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P41" s="1" t="n">
+      <c r="P41" s="4" t="n">
         <v>0.43955</v>
       </c>
-      <c r="Q41" s="1" t="n">
+      <c r="Q41" s="4" t="n">
         <v>-1.68049919605255</v>
       </c>
-      <c r="R41" s="1" t="s">
+      <c r="R41" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="S41" s="1" t="n">
+      <c r="S41" s="4" t="n">
         <v>-1.32016885280609</v>
       </c>
-      <c r="T41" s="1" t="s">
+      <c r="T41" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="U41" s="1" t="n">
+      <c r="U41" s="4" t="n">
         <v>-1.2024929523468</v>
       </c>
-      <c r="V41" s="1" t="s">
+      <c r="V41" s="4" t="s">
         <v>245</v>
       </c>
     </row>
@@ -5030,16 +5045,16 @@
       <c r="F42" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="G42" s="1" t="n">
+      <c r="G42" s="4" t="n">
         <v>0.516199628403146</v>
       </c>
-      <c r="H42" s="1" t="n">
+      <c r="H42" s="4" t="n">
         <v>0.58119405506985</v>
       </c>
-      <c r="I42" s="1" t="n">
+      <c r="I42" s="4" t="n">
         <v>0.497338764573312</v>
       </c>
-      <c r="J42" s="4" t="s">
+      <c r="J42" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K42" s="1" t="s">
@@ -5057,25 +5072,25 @@
       <c r="O42" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P42" s="1" t="n">
+      <c r="P42" s="4" t="n">
         <v>0.156263157894737</v>
       </c>
-      <c r="Q42" s="1" t="n">
+      <c r="Q42" s="4" t="n">
         <v>1.49462449550629</v>
       </c>
-      <c r="R42" s="1" t="s">
+      <c r="R42" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="S42" s="1" t="n">
+      <c r="S42" s="4" t="n">
         <v>1.42011070251465</v>
       </c>
-      <c r="T42" s="1" t="s">
+      <c r="T42" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="U42" s="1" t="n">
+      <c r="U42" s="4" t="n">
         <v>1.54984140396118</v>
       </c>
-      <c r="V42" s="1" t="s">
+      <c r="V42" s="4" t="s">
         <v>250</v>
       </c>
     </row>
@@ -5098,16 +5113,16 @@
       <c r="F43" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="G43" s="1" t="n">
+      <c r="G43" s="4" t="n">
         <v>0.6235118181011</v>
       </c>
-      <c r="H43" s="1" t="n">
+      <c r="H43" s="4" t="n">
         <v>0.769392427151214</v>
       </c>
-      <c r="I43" s="1" t="n">
+      <c r="I43" s="4" t="n">
         <v>0.497338764573312</v>
       </c>
-      <c r="J43" s="4" t="s">
+      <c r="J43" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K43" s="1" t="s">
@@ -5125,25 +5140,25 @@
       <c r="O43" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P43" s="1" t="n">
+      <c r="P43" s="4" t="n">
         <v>1.85464285714286</v>
       </c>
-      <c r="Q43" s="1" t="n">
+      <c r="Q43" s="4" t="n">
         <v>-0.584309995174408</v>
       </c>
-      <c r="R43" s="1" t="s">
+      <c r="R43" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="S43" s="1" t="n">
+      <c r="S43" s="4" t="n">
         <v>-0.622343957424164</v>
       </c>
-      <c r="T43" s="1" t="s">
+      <c r="T43" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="U43" s="1" t="n">
+      <c r="U43" s="4" t="n">
         <v>-0.735393345355988</v>
       </c>
-      <c r="V43" s="1" t="s">
+      <c r="V43" s="4" t="s">
         <v>256</v>
       </c>
     </row>
@@ -5166,16 +5181,16 @@
       <c r="F44" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="G44" s="1" t="n">
+      <c r="G44" s="4" t="n">
         <v>0.519798706924801</v>
       </c>
-      <c r="H44" s="1" t="n">
+      <c r="H44" s="4" t="n">
         <v>0.601034821865209</v>
       </c>
-      <c r="I44" s="1" t="n">
+      <c r="I44" s="4" t="n">
         <v>0.497338764573312</v>
       </c>
-      <c r="J44" s="4" t="s">
+      <c r="J44" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K44" s="1" t="s">
@@ -5193,25 +5208,25 @@
       <c r="O44" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P44" s="1" t="n">
+      <c r="P44" s="4" t="n">
         <v>1.12191176470588</v>
       </c>
-      <c r="Q44" s="1" t="n">
+      <c r="Q44" s="4" t="n">
         <v>-1.42645442485809</v>
       </c>
-      <c r="R44" s="1" t="s">
+      <c r="R44" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="S44" s="1" t="n">
+      <c r="S44" s="4" t="n">
         <v>-1.48236501216888</v>
       </c>
-      <c r="T44" s="1" t="s">
+      <c r="T44" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="U44" s="1" t="n">
+      <c r="U44" s="4" t="n">
         <v>-1.49057972431183</v>
       </c>
-      <c r="V44" s="1" t="s">
+      <c r="V44" s="4" t="s">
         <v>262</v>
       </c>
     </row>
@@ -5234,16 +5249,16 @@
       <c r="F45" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="G45" s="1" t="n">
+      <c r="G45" s="4" t="n">
         <v>0.821081961973687</v>
       </c>
-      <c r="H45" s="1" t="n">
+      <c r="H45" s="4" t="n">
         <v>1.09182438517533</v>
       </c>
-      <c r="I45" s="1" t="n">
+      <c r="I45" s="4" t="n">
         <v>0.497338764573312</v>
       </c>
-      <c r="J45" s="4" t="s">
+      <c r="J45" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K45" s="1" t="s">
@@ -5261,25 +5276,25 @@
       <c r="O45" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P45" s="1" t="n">
+      <c r="P45" s="4" t="n">
         <v>0.895775510204082</v>
       </c>
-      <c r="Q45" s="1" t="n">
+      <c r="Q45" s="4" t="n">
         <v>-1.5649847984314</v>
       </c>
-      <c r="R45" s="1" t="s">
+      <c r="R45" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="S45" s="1" t="n">
+      <c r="S45" s="4" t="n">
         <v>-1.68891310691834</v>
       </c>
-      <c r="T45" s="1" t="s">
+      <c r="T45" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="U45" s="1" t="n">
+      <c r="U45" s="4" t="n">
         <v>-1.65859198570252</v>
       </c>
-      <c r="V45" s="1" t="s">
+      <c r="V45" s="4" t="s">
         <v>266</v>
       </c>
     </row>
@@ -5302,16 +5317,16 @@
       <c r="F46" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="G46" s="1" t="n">
+      <c r="G46" s="4" t="n">
         <v>0.353427647563636</v>
       </c>
-      <c r="H46" s="1" t="n">
+      <c r="H46" s="4" t="n">
         <v>0.512407152112652</v>
       </c>
-      <c r="I46" s="1" t="n">
+      <c r="I46" s="4" t="n">
         <v>0.497338764573312</v>
       </c>
-      <c r="J46" s="4" t="s">
+      <c r="J46" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K46" s="1" t="s">
@@ -5329,25 +5344,25 @@
       <c r="O46" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P46" s="1" t="n">
+      <c r="P46" s="4" t="n">
         <v>-0.0190555555555556</v>
       </c>
-      <c r="Q46" s="1" t="n">
+      <c r="Q46" s="4" t="n">
         <v>-1.60842299461365</v>
       </c>
-      <c r="R46" s="1" t="s">
+      <c r="R46" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="S46" s="1" t="n">
+      <c r="S46" s="4" t="n">
         <v>-1.71648812294006</v>
       </c>
-      <c r="T46" s="1" t="s">
+      <c r="T46" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="U46" s="1" t="n">
+      <c r="U46" s="4" t="n">
         <v>-1.83497262001038</v>
       </c>
-      <c r="V46" s="1" t="s">
+      <c r="V46" s="4" t="s">
         <v>114</v>
       </c>
     </row>
@@ -5370,16 +5385,16 @@
       <c r="F47" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="G47" s="1" t="n">
+      <c r="G47" s="4" t="n">
         <v>0.259433999257449</v>
       </c>
-      <c r="H47" s="1" t="n">
+      <c r="H47" s="4" t="n">
         <v>0.281051990793909</v>
       </c>
-      <c r="I47" s="1" t="n">
+      <c r="I47" s="4" t="n">
         <v>0.497338764573312</v>
       </c>
-      <c r="J47" s="4" t="s">
+      <c r="J47" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K47" s="1" t="s">
@@ -5397,25 +5412,25 @@
       <c r="O47" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P47" s="1" t="n">
+      <c r="P47" s="4" t="n">
         <v>0.379727272727273</v>
       </c>
-      <c r="Q47" s="1" t="n">
+      <c r="Q47" s="4" t="n">
         <v>-1.14713072776794</v>
       </c>
-      <c r="R47" s="1" t="s">
+      <c r="R47" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="S47" s="1" t="n">
+      <c r="S47" s="4" t="n">
         <v>-1.20346570014954</v>
       </c>
-      <c r="T47" s="1" t="s">
+      <c r="T47" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="U47" s="1" t="n">
+      <c r="U47" s="4" t="n">
         <v>-1.08322012424469</v>
       </c>
-      <c r="V47" s="1" t="s">
+      <c r="V47" s="4" t="s">
         <v>273</v>
       </c>
     </row>
@@ -5438,16 +5453,16 @@
       <c r="F48" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="G48" s="1" t="n">
+      <c r="G48" s="4" t="n">
         <v>0.230474953749148</v>
       </c>
-      <c r="H48" s="1" t="n">
+      <c r="H48" s="4" t="n">
         <v>0.238019246101657</v>
       </c>
-      <c r="I48" s="1" t="n">
+      <c r="I48" s="4" t="n">
         <v>0.497338764573312</v>
       </c>
-      <c r="J48" s="4" t="s">
+      <c r="J48" s="5" t="s">
         <v>236</v>
       </c>
       <c r="K48" s="1" t="s">
@@ -5465,25 +5480,25 @@
       <c r="O48" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P48" s="1" t="n">
+      <c r="P48" s="4" t="n">
         <v>-1.72233333333333</v>
       </c>
-      <c r="Q48" s="1" t="n">
+      <c r="Q48" s="4" t="n">
         <v>-0.772098362445831</v>
       </c>
-      <c r="R48" s="1" t="s">
+      <c r="R48" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="S48" s="1" t="n">
+      <c r="S48" s="4" t="n">
         <v>-0.802203297615051</v>
       </c>
-      <c r="T48" s="1" t="s">
+      <c r="T48" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="U48" s="1" t="n">
+      <c r="U48" s="4" t="n">
         <v>-1.00426316261292</v>
       </c>
-      <c r="V48" s="1" t="s">
+      <c r="V48" s="4" t="s">
         <v>269</v>
       </c>
     </row>
@@ -5506,16 +5521,16 @@
       <c r="F49" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G49" s="1" t="n">
+      <c r="G49" s="4" t="n">
         <v>0.461869129416725</v>
       </c>
-      <c r="H49" s="1" t="n">
+      <c r="H49" s="4" t="n">
         <v>0.463555567102287</v>
       </c>
-      <c r="I49" s="1" t="n">
+      <c r="I49" s="4" t="n">
         <v>0.497338764573312</v>
       </c>
-      <c r="J49" s="4" t="s">
+      <c r="J49" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K49" s="1" t="s">
@@ -5533,25 +5548,25 @@
       <c r="O49" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P49" s="1" t="n">
+      <c r="P49" s="4" t="n">
         <v>-1.154</v>
       </c>
-      <c r="Q49" s="1" t="n">
+      <c r="Q49" s="4" t="n">
         <v>-0.220685675740242</v>
       </c>
-      <c r="R49" s="1" t="s">
+      <c r="R49" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="S49" s="1" t="n">
+      <c r="S49" s="4" t="n">
         <v>-0.210488066077232</v>
       </c>
-      <c r="T49" s="1" t="s">
+      <c r="T49" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="U49" s="1" t="n">
+      <c r="U49" s="4" t="n">
         <v>-0.214092016220093</v>
       </c>
-      <c r="V49" s="1" t="s">
+      <c r="V49" s="4" t="s">
         <v>282</v>
       </c>
     </row>
@@ -5574,16 +5589,16 @@
       <c r="F50" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G50" s="1" t="n">
+      <c r="G50" s="4" t="n">
         <v>0.226720435667435</v>
       </c>
-      <c r="H50" s="1" t="n">
+      <c r="H50" s="4" t="n">
         <v>0.230329718674301</v>
       </c>
-      <c r="I50" s="1" t="n">
+      <c r="I50" s="4" t="n">
         <v>0.497338764573312</v>
       </c>
-      <c r="J50" s="4" t="s">
+      <c r="J50" s="5" t="s">
         <v>236</v>
       </c>
       <c r="K50" s="1" t="s">
@@ -5601,25 +5616,25 @@
       <c r="O50" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P50" s="1" t="n">
+      <c r="P50" s="4" t="n">
         <v>-0.12425</v>
       </c>
-      <c r="Q50" s="1" t="n">
+      <c r="Q50" s="4" t="n">
         <v>-0.350804388523102</v>
       </c>
-      <c r="R50" s="1" t="s">
+      <c r="R50" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="S50" s="1" t="n">
+      <c r="S50" s="4" t="n">
         <v>-0.266730934381485</v>
       </c>
-      <c r="T50" s="1" t="s">
+      <c r="T50" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="U50" s="1" t="n">
+      <c r="U50" s="4" t="n">
         <v>-0.353740334510803</v>
       </c>
-      <c r="V50" s="1" t="s">
+      <c r="V50" s="4" t="s">
         <v>288</v>
       </c>
     </row>
@@ -5642,16 +5657,16 @@
       <c r="F51" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G51" s="1" t="n">
+      <c r="G51" s="4" t="n">
         <v>0.4479612633316</v>
       </c>
-      <c r="H51" s="1" t="n">
+      <c r="H51" s="4" t="n">
         <v>0.450027586310767</v>
       </c>
-      <c r="I51" s="1" t="n">
+      <c r="I51" s="4" t="n">
         <v>0.497338764573312</v>
       </c>
-      <c r="J51" s="4" t="s">
+      <c r="J51" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K51" s="1" t="s">
@@ -5669,25 +5684,25 @@
       <c r="O51" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P51" s="1" t="n">
+      <c r="P51" s="4" t="n">
         <v>-0.530666666666667</v>
       </c>
-      <c r="Q51" s="1" t="n">
+      <c r="Q51" s="4" t="n">
         <v>-0.0659588277339935</v>
       </c>
-      <c r="R51" s="1" t="s">
+      <c r="R51" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="S51" s="1" t="n">
+      <c r="S51" s="4" t="n">
         <v>0.126568645238876</v>
       </c>
-      <c r="T51" s="1" t="s">
+      <c r="T51" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="U51" s="1" t="n">
+      <c r="U51" s="4" t="n">
         <v>0.225449696183205</v>
       </c>
-      <c r="V51" s="1" t="s">
+      <c r="V51" s="4" t="s">
         <v>293</v>
       </c>
     </row>
@@ -5710,16 +5725,16 @@
       <c r="F52" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="G52" s="1" t="n">
+      <c r="G52" s="4" t="n">
         <v>0.524321717535099</v>
       </c>
-      <c r="H52" s="1" t="n">
+      <c r="H52" s="4" t="n">
         <v>0.595880009635391</v>
       </c>
-      <c r="I52" s="1" t="n">
+      <c r="I52" s="4" t="n">
         <v>0.497338764573312</v>
       </c>
-      <c r="J52" s="4" t="s">
+      <c r="J52" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K52" s="1" t="s">
@@ -5737,25 +5752,25 @@
       <c r="O52" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P52" s="1" t="n">
+      <c r="P52" s="4" t="n">
         <v>-1.02113333333333</v>
       </c>
-      <c r="Q52" s="1" t="n">
+      <c r="Q52" s="4" t="n">
         <v>0.141477271914482</v>
       </c>
-      <c r="R52" s="1" t="s">
+      <c r="R52" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="S52" s="1" t="n">
+      <c r="S52" s="4" t="n">
         <v>0.21031354367733</v>
       </c>
-      <c r="T52" s="1" t="s">
+      <c r="T52" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="U52" s="1" t="n">
+      <c r="U52" s="4" t="n">
         <v>0.15282341837883</v>
       </c>
-      <c r="V52" s="1" t="s">
+      <c r="V52" s="4" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5778,16 +5793,16 @@
       <c r="F53" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="G53" s="1" t="n">
+      <c r="G53" s="4" t="n">
         <v>0.512958382803985</v>
       </c>
-      <c r="H53" s="1" t="n">
+      <c r="H53" s="4" t="n">
         <v>0.615584910788515</v>
       </c>
-      <c r="I53" s="1" t="n">
+      <c r="I53" s="4" t="n">
         <v>0.497338764573312</v>
       </c>
-      <c r="J53" s="4" t="s">
+      <c r="J53" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K53" s="1" t="s">
@@ -5805,25 +5820,25 @@
       <c r="O53" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P53" s="1" t="n">
+      <c r="P53" s="4" t="n">
         <v>-0.386815789473684</v>
       </c>
-      <c r="Q53" s="1" t="n">
+      <c r="Q53" s="4" t="n">
         <v>0.407004982233048</v>
       </c>
-      <c r="R53" s="1" t="s">
+      <c r="R53" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="S53" s="1" t="n">
+      <c r="S53" s="4" t="n">
         <v>0.535532772541046</v>
       </c>
-      <c r="T53" s="1" t="s">
+      <c r="T53" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="U53" s="1" t="n">
+      <c r="U53" s="4" t="n">
         <v>0.436565577983856</v>
       </c>
-      <c r="V53" s="1" t="s">
+      <c r="V53" s="4" t="s">
         <v>302</v>
       </c>
     </row>
@@ -5846,16 +5861,16 @@
       <c r="F54" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G54" s="1" t="n">
+      <c r="G54" s="4" t="n">
         <v>0.324905750353461</v>
       </c>
-      <c r="H54" s="1" t="n">
+      <c r="H54" s="4" t="n">
         <v>0.338650928253461</v>
       </c>
-      <c r="I54" s="1" t="n">
+      <c r="I54" s="4" t="n">
         <v>0.366743930266706</v>
       </c>
-      <c r="J54" s="4" t="s">
+      <c r="J54" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K54" s="1" t="s">
@@ -5873,25 +5888,25 @@
       <c r="O54" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P54" s="1" t="n">
+      <c r="P54" s="4" t="n">
         <v>-1.2558</v>
       </c>
-      <c r="Q54" s="1" t="n">
+      <c r="Q54" s="4" t="n">
         <v>0.155226990580559</v>
       </c>
-      <c r="R54" s="1" t="s">
+      <c r="R54" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="S54" s="1" t="n">
+      <c r="S54" s="4" t="n">
         <v>0.253819137811661</v>
       </c>
-      <c r="T54" s="1" t="s">
+      <c r="T54" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="U54" s="1" t="n">
+      <c r="U54" s="4" t="n">
         <v>0.265200018882752</v>
       </c>
-      <c r="V54" s="1" t="s">
+      <c r="V54" s="4" t="s">
         <v>308</v>
       </c>
     </row>
@@ -5914,16 +5929,16 @@
       <c r="F55" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="G55" s="1" t="n">
+      <c r="G55" s="4" t="n">
         <v>0.398520525195544</v>
       </c>
-      <c r="H55" s="1" t="n">
+      <c r="H55" s="4" t="n">
         <v>0.461802821569017</v>
       </c>
-      <c r="I55" s="1" t="n">
+      <c r="I55" s="4" t="n">
         <v>0.366743930266706</v>
       </c>
-      <c r="J55" s="4" t="s">
+      <c r="J55" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K55" s="1" t="s">
@@ -5941,25 +5956,25 @@
       <c r="O55" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P55" s="1" t="n">
+      <c r="P55" s="4" t="n">
         <v>0.586478260869565</v>
       </c>
-      <c r="Q55" s="1" t="n">
+      <c r="Q55" s="4" t="n">
         <v>0.486998826265335</v>
       </c>
-      <c r="R55" s="1" t="s">
+      <c r="R55" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="S55" s="1" t="n">
+      <c r="S55" s="4" t="n">
         <v>0.515862047672272</v>
       </c>
-      <c r="T55" s="1" t="s">
+      <c r="T55" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="U55" s="1" t="n">
+      <c r="U55" s="4" t="n">
         <v>0.234496608376503</v>
       </c>
-      <c r="V55" s="1" t="s">
+      <c r="V55" s="4" t="s">
         <v>314</v>
       </c>
     </row>
@@ -5982,16 +5997,16 @@
       <c r="F56" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="G56" s="1" t="n">
+      <c r="G56" s="4" t="n">
         <v>0.328027373629253</v>
       </c>
-      <c r="H56" s="1" t="n">
+      <c r="H56" s="4" t="n">
         <v>0.340335611776575</v>
       </c>
-      <c r="I56" s="1" t="n">
+      <c r="I56" s="4" t="n">
         <v>0.366743930266706</v>
       </c>
-      <c r="J56" s="4" t="s">
+      <c r="J56" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K56" s="1" t="s">
@@ -6009,25 +6024,25 @@
       <c r="O56" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P56" s="1" t="n">
+      <c r="P56" s="4" t="n">
         <v>0.36</v>
       </c>
-      <c r="Q56" s="1" t="n">
+      <c r="Q56" s="4" t="n">
         <v>0.481469690799713</v>
       </c>
-      <c r="R56" s="1" t="s">
+      <c r="R56" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="S56" s="1" t="n">
+      <c r="S56" s="4" t="n">
         <v>0.629895091056824</v>
       </c>
-      <c r="T56" s="1" t="s">
+      <c r="T56" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="U56" s="1" t="n">
+      <c r="U56" s="4" t="n">
         <v>0.565493285655975</v>
       </c>
-      <c r="V56" s="1" t="s">
+      <c r="V56" s="4" t="s">
         <v>320</v>
       </c>
     </row>
@@ -6050,16 +6065,16 @@
       <c r="F57" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G57" s="1" t="n">
+      <c r="G57" s="4" t="n">
         <v>0.302767508840001</v>
       </c>
-      <c r="H57" s="1" t="n">
+      <c r="H57" s="4" t="n">
         <v>0.302767508840001</v>
       </c>
-      <c r="I57" s="1" t="n">
+      <c r="I57" s="4" t="n">
         <v>0.366743930266706</v>
       </c>
-      <c r="J57" s="4" t="s">
+      <c r="J57" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K57" s="1" t="s">
@@ -6077,25 +6092,25 @@
       <c r="O57" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P57" s="1" t="n">
+      <c r="P57" s="4" t="n">
         <v>-1.746</v>
       </c>
-      <c r="Q57" s="1" t="n">
+      <c r="Q57" s="4" t="n">
         <v>-0.051495011895895</v>
       </c>
-      <c r="R57" s="1" t="s">
+      <c r="R57" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="S57" s="1" t="n">
+      <c r="S57" s="4" t="n">
         <v>0.130406051874161</v>
       </c>
-      <c r="T57" s="1" t="s">
+      <c r="T57" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="U57" s="1" t="n">
+      <c r="U57" s="4" t="n">
         <v>-0.000601561099756509</v>
       </c>
-      <c r="V57" s="1" t="s">
+      <c r="V57" s="4" t="s">
         <v>324</v>
       </c>
     </row>
@@ -6118,16 +6133,16 @@
       <c r="F58" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="G58" s="1" t="n">
+      <c r="G58" s="4" t="n">
         <v>0.36776644858183</v>
       </c>
-      <c r="H58" s="1" t="n">
+      <c r="H58" s="4" t="n">
         <v>0.401758862053426</v>
       </c>
-      <c r="I58" s="1" t="n">
+      <c r="I58" s="4" t="n">
         <v>0.366743930266706</v>
       </c>
-      <c r="J58" s="4" t="s">
+      <c r="J58" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K58" s="1" t="s">
@@ -6145,25 +6160,25 @@
       <c r="O58" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P58" s="1" t="n">
+      <c r="P58" s="4" t="n">
         <v>0.708625</v>
       </c>
-      <c r="Q58" s="1" t="n">
+      <c r="Q58" s="4" t="n">
         <v>-1.58746111392975</v>
       </c>
-      <c r="R58" s="1" t="s">
+      <c r="R58" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="S58" s="1" t="n">
+      <c r="S58" s="4" t="n">
         <v>-1.52896809577942</v>
       </c>
-      <c r="T58" s="1" t="s">
+      <c r="T58" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="U58" s="1" t="n">
+      <c r="U58" s="4" t="n">
         <v>-1.49850678443909</v>
       </c>
-      <c r="V58" s="1" t="s">
+      <c r="V58" s="4" t="s">
         <v>330</v>
       </c>
     </row>
@@ -6186,16 +6201,16 @@
       <c r="F59" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="G59" s="1" t="n">
+      <c r="G59" s="4" t="n">
         <v>0.344605611983389</v>
       </c>
-      <c r="H59" s="1" t="n">
+      <c r="H59" s="4" t="n">
         <v>0.400918309009238</v>
       </c>
-      <c r="I59" s="1" t="n">
+      <c r="I59" s="4" t="n">
         <v>0.366743930266706</v>
       </c>
-      <c r="J59" s="4" t="s">
+      <c r="J59" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K59" s="1" t="s">
@@ -6213,25 +6228,25 @@
       <c r="O59" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P59" s="1" t="n">
+      <c r="P59" s="4" t="n">
         <v>0.186194444444444</v>
       </c>
-      <c r="Q59" s="1" t="n">
+      <c r="Q59" s="4" t="n">
         <v>-1.18867087364197</v>
       </c>
-      <c r="R59" s="1" t="s">
+      <c r="R59" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="S59" s="1" t="n">
+      <c r="S59" s="4" t="n">
         <v>-0.888128340244293</v>
       </c>
-      <c r="T59" s="1" t="s">
+      <c r="T59" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="U59" s="1" t="n">
+      <c r="U59" s="4" t="n">
         <v>-1.00794422626495</v>
       </c>
-      <c r="V59" s="1" t="s">
+      <c r="V59" s="4" t="s">
         <v>336</v>
       </c>
     </row>
@@ -6254,16 +6269,16 @@
       <c r="F60" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="G60" s="1" t="n">
+      <c r="G60" s="4" t="n">
         <v>0.364643179370467</v>
       </c>
-      <c r="H60" s="1" t="n">
+      <c r="H60" s="4" t="n">
         <v>0.401077254396528</v>
       </c>
-      <c r="I60" s="1" t="n">
+      <c r="I60" s="4" t="n">
         <v>0.366743930266706</v>
       </c>
-      <c r="J60" s="4" t="s">
+      <c r="J60" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K60" s="1" t="s">
@@ -6281,25 +6296,25 @@
       <c r="O60" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P60" s="1" t="n">
+      <c r="P60" s="4" t="n">
         <v>1.7401</v>
       </c>
-      <c r="Q60" s="1" t="n">
+      <c r="Q60" s="4" t="n">
         <v>-1.10008752346039</v>
       </c>
-      <c r="R60" s="1" t="s">
+      <c r="R60" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="S60" s="1" t="n">
+      <c r="S60" s="4" t="n">
         <v>-1.13249707221985</v>
       </c>
-      <c r="T60" s="1" t="s">
+      <c r="T60" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="U60" s="1" t="n">
+      <c r="U60" s="4" t="n">
         <v>-0.859607219696045</v>
       </c>
-      <c r="V60" s="1" t="s">
+      <c r="V60" s="4" t="s">
         <v>342</v>
       </c>
     </row>
@@ -6322,16 +6337,16 @@
       <c r="F61" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="G61" s="1" t="n">
+      <c r="G61" s="4" t="n">
         <v>0.326861909705663</v>
       </c>
-      <c r="H61" s="1" t="n">
+      <c r="H61" s="4" t="n">
         <v>0.340002603796346</v>
       </c>
-      <c r="I61" s="1" t="n">
+      <c r="I61" s="4" t="n">
         <v>0.366743930266706</v>
       </c>
-      <c r="J61" s="4" t="s">
+      <c r="J61" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K61" s="1" t="s">
@@ -6349,25 +6364,25 @@
       <c r="O61" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P61" s="1" t="n">
+      <c r="P61" s="4" t="n">
         <v>-1.2919</v>
       </c>
-      <c r="Q61" s="1" t="n">
+      <c r="Q61" s="4" t="n">
         <v>-0.692232429981232</v>
       </c>
-      <c r="R61" s="1" t="s">
+      <c r="R61" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="S61" s="1" t="n">
+      <c r="S61" s="4" t="n">
         <v>-0.506457984447479</v>
       </c>
-      <c r="T61" s="1" t="s">
+      <c r="T61" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="U61" s="1" t="n">
+      <c r="U61" s="4" t="n">
         <v>-0.458954334259033</v>
       </c>
-      <c r="V61" s="1" t="s">
+      <c r="V61" s="4" t="s">
         <v>348</v>
       </c>
     </row>
@@ -6390,16 +6405,16 @@
       <c r="F62" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="G62" s="1" t="n">
+      <c r="G62" s="4" t="n">
         <v>0.35508396679598</v>
       </c>
-      <c r="H62" s="1" t="n">
+      <c r="H62" s="4" t="n">
         <v>0.397906955682915</v>
       </c>
-      <c r="I62" s="1" t="n">
+      <c r="I62" s="4" t="n">
         <v>0.366743930266706</v>
       </c>
-      <c r="J62" s="4" t="s">
+      <c r="J62" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K62" s="1" t="s">
@@ -6417,25 +6432,25 @@
       <c r="O62" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P62" s="1" t="n">
+      <c r="P62" s="4" t="n">
         <v>0.1851875</v>
       </c>
-      <c r="Q62" s="1" t="n">
+      <c r="Q62" s="4" t="n">
         <v>-0.548642575740814</v>
       </c>
-      <c r="R62" s="1" t="s">
+      <c r="R62" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="S62" s="1" t="n">
+      <c r="S62" s="4" t="n">
         <v>-0.649180710315704</v>
       </c>
-      <c r="T62" s="1" t="s">
+      <c r="T62" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="U62" s="1" t="n">
+      <c r="U62" s="4" t="n">
         <v>-0.695615231990814</v>
       </c>
-      <c r="V62" s="1" t="s">
+      <c r="V62" s="4" t="s">
         <v>353</v>
       </c>
     </row>
@@ -6458,16 +6473,16 @@
       <c r="F63" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G63" s="1" t="n">
+      <c r="G63" s="4" t="n">
         <v>0.305783215346388</v>
       </c>
-      <c r="H63" s="1" t="n">
+      <c r="H63" s="4" t="n">
         <v>0.306522394282827</v>
       </c>
-      <c r="I63" s="1" t="n">
+      <c r="I63" s="4" t="n">
         <v>0.366743930266706</v>
       </c>
-      <c r="J63" s="4" t="s">
+      <c r="J63" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K63" s="1" t="s">
@@ -6485,25 +6500,25 @@
       <c r="O63" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P63" s="1" t="n">
+      <c r="P63" s="4" t="n">
         <v>-0.2355</v>
       </c>
-      <c r="Q63" s="1" t="n">
+      <c r="Q63" s="4" t="n">
         <v>-0.301500290632248</v>
       </c>
-      <c r="R63" s="1" t="s">
+      <c r="R63" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="S63" s="1" t="n">
+      <c r="S63" s="4" t="n">
         <v>-0.366946816444397</v>
       </c>
-      <c r="T63" s="1" t="s">
+      <c r="T63" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="U63" s="1" t="n">
+      <c r="U63" s="4" t="n">
         <v>-0.351519495248795</v>
       </c>
-      <c r="V63" s="1" t="s">
+      <c r="V63" s="4" t="s">
         <v>358</v>
       </c>
     </row>
@@ -6526,16 +6541,16 @@
       <c r="F64" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G64" s="1" t="n">
+      <c r="G64" s="4" t="n">
         <v>0.305373835898915</v>
       </c>
-      <c r="H64" s="1" t="n">
+      <c r="H64" s="4" t="n">
         <v>0.308730362544749</v>
       </c>
-      <c r="I64" s="1" t="n">
+      <c r="I64" s="4" t="n">
         <v>0.366743930266706</v>
       </c>
-      <c r="J64" s="4" t="s">
+      <c r="J64" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K64" s="1" t="s">
@@ -6553,25 +6568,25 @@
       <c r="O64" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P64" s="1" t="n">
+      <c r="P64" s="4" t="n">
         <v>-2.293</v>
       </c>
-      <c r="Q64" s="1" t="n">
+      <c r="Q64" s="4" t="n">
         <v>0.144646972417831</v>
       </c>
-      <c r="R64" s="1" t="s">
+      <c r="R64" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="S64" s="1" t="n">
+      <c r="S64" s="4" t="n">
         <v>0.291979551315308</v>
       </c>
-      <c r="T64" s="1" t="s">
+      <c r="T64" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="U64" s="1" t="n">
+      <c r="U64" s="4" t="n">
         <v>0.441471993923187</v>
       </c>
-      <c r="V64" s="1" t="s">
+      <c r="V64" s="4" t="s">
         <v>364</v>
       </c>
     </row>
@@ -6594,16 +6609,16 @@
       <c r="F65" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="G65" s="1" t="n">
+      <c r="G65" s="4" t="n">
         <v>0.364166736209392</v>
       </c>
-      <c r="H65" s="1" t="n">
+      <c r="H65" s="4" t="n">
         <v>0.409036892878134</v>
       </c>
-      <c r="I65" s="1" t="n">
+      <c r="I65" s="4" t="n">
         <v>0.366743930266706</v>
       </c>
-      <c r="J65" s="4" t="s">
+      <c r="J65" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K65" s="1" t="s">
@@ -6621,25 +6636,25 @@
       <c r="O65" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P65" s="1" t="n">
+      <c r="P65" s="4" t="n">
         <v>0.0184166666666667</v>
       </c>
-      <c r="Q65" s="1" t="n">
+      <c r="Q65" s="4" t="n">
         <v>0.0560979843139648</v>
       </c>
-      <c r="R65" s="1" t="s">
+      <c r="R65" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="S65" s="1" t="n">
+      <c r="S65" s="4" t="n">
         <v>0.023163978010416</v>
       </c>
-      <c r="T65" s="1" t="s">
+      <c r="T65" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="U65" s="1" t="n">
+      <c r="U65" s="4" t="n">
         <v>0.277840524911881</v>
       </c>
-      <c r="V65" s="1" t="s">
+      <c r="V65" s="4" t="s">
         <v>370</v>
       </c>
     </row>
@@ -6662,16 +6677,16 @@
       <c r="F66" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G66" s="1" t="n">
+      <c r="G66" s="4" t="n">
         <v>0.311595549965145</v>
       </c>
-      <c r="H66" s="1" t="n">
+      <c r="H66" s="4" t="n">
         <v>0.317652735341206</v>
       </c>
-      <c r="I66" s="1" t="n">
+      <c r="I66" s="4" t="n">
         <v>0.366743930266706</v>
       </c>
-      <c r="J66" s="4" t="s">
+      <c r="J66" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K66" s="1" t="s">
@@ -6689,25 +6704,25 @@
       <c r="O66" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P66" s="1" t="n">
+      <c r="P66" s="4" t="n">
         <v>1.65525</v>
       </c>
-      <c r="Q66" s="1" t="n">
+      <c r="Q66" s="4" t="n">
         <v>0.603116631507874</v>
       </c>
-      <c r="R66" s="1" t="s">
+      <c r="R66" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="S66" s="1" t="n">
+      <c r="S66" s="4" t="n">
         <v>0.742669403553009</v>
       </c>
-      <c r="T66" s="1" t="s">
+      <c r="T66" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="U66" s="1" t="n">
+      <c r="U66" s="4" t="n">
         <v>0.988141596317291</v>
       </c>
-      <c r="V66" s="1" t="s">
+      <c r="V66" s="4" t="s">
         <v>376</v>
       </c>
     </row>
@@ -6730,16 +6745,16 @@
       <c r="F67" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="G67" s="1" t="n">
+      <c r="G67" s="4" t="n">
         <v>0.351461327497681</v>
       </c>
-      <c r="H67" s="1" t="n">
+      <c r="H67" s="4" t="n">
         <v>0.387911214473376</v>
       </c>
-      <c r="I67" s="1" t="n">
+      <c r="I67" s="4" t="n">
         <v>0.366743930266706</v>
       </c>
-      <c r="J67" s="4" t="s">
+      <c r="J67" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K67" s="1" t="s">
@@ -6757,25 +6772,25 @@
       <c r="O67" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P67" s="1" t="n">
+      <c r="P67" s="4" t="n">
         <v>-3.14633333333333</v>
       </c>
-      <c r="Q67" s="1" t="n">
+      <c r="Q67" s="4" t="n">
         <v>-0.244092911481857</v>
       </c>
-      <c r="R67" s="1" t="s">
+      <c r="R67" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="S67" s="1" t="n">
+      <c r="S67" s="4" t="n">
         <v>-0.404466986656189</v>
       </c>
-      <c r="T67" s="1" t="s">
+      <c r="T67" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="U67" s="1" t="n">
+      <c r="U67" s="4" t="n">
         <v>-0.527905106544495</v>
       </c>
-      <c r="V67" s="1" t="s">
+      <c r="V67" s="4" t="s">
         <v>382</v>
       </c>
     </row>
@@ -6798,16 +6813,16 @@
       <c r="F68" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G68" s="1" t="n">
+      <c r="G68" s="4" t="n">
         <v>0.317451047322603</v>
       </c>
-      <c r="H68" s="1" t="n">
+      <c r="H68" s="4" t="n">
         <v>0.323599179665292</v>
       </c>
-      <c r="I68" s="1" t="n">
+      <c r="I68" s="4" t="n">
         <v>0.366743930266706</v>
       </c>
-      <c r="J68" s="4" t="s">
+      <c r="J68" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K68" s="1" t="s">
@@ -6825,25 +6840,25 @@
       <c r="O68" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P68" s="1" t="n">
+      <c r="P68" s="4" t="n">
         <v>0.08275</v>
       </c>
-      <c r="Q68" s="1" t="n">
+      <c r="Q68" s="4" t="n">
         <v>-1.18195748329163</v>
       </c>
-      <c r="R68" s="1" t="s">
+      <c r="R68" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="S68" s="1" t="n">
+      <c r="S68" s="4" t="n">
         <v>-1.05229771137238</v>
       </c>
-      <c r="T68" s="1" t="s">
+      <c r="T68" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="U68" s="1" t="n">
+      <c r="U68" s="4" t="n">
         <v>-1.19689238071442</v>
       </c>
-      <c r="V68" s="1" t="s">
+      <c r="V68" s="4" t="s">
         <v>388</v>
       </c>
     </row>
@@ -6866,16 +6881,16 @@
       <c r="F69" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="G69" s="1" t="n">
+      <c r="G69" s="4" t="n">
         <v>0.359420084183497</v>
       </c>
-      <c r="H69" s="1" t="n">
+      <c r="H69" s="4" t="n">
         <v>0.399673685194936</v>
       </c>
-      <c r="I69" s="1" t="n">
+      <c r="I69" s="4" t="n">
         <v>0.366743930266706</v>
       </c>
-      <c r="J69" s="4" t="s">
+      <c r="J69" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K69" s="1" t="s">
@@ -6893,25 +6908,25 @@
       <c r="O69" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P69" s="1" t="n">
+      <c r="P69" s="4" t="n">
         <v>1.0283</v>
       </c>
-      <c r="Q69" s="1" t="n">
+      <c r="Q69" s="4" t="n">
         <v>0.895937860012054</v>
       </c>
-      <c r="R69" s="1" t="s">
+      <c r="R69" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="S69" s="1" t="n">
+      <c r="S69" s="4" t="n">
         <v>0.908495545387268</v>
       </c>
-      <c r="T69" s="1" t="s">
+      <c r="T69" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="U69" s="1" t="n">
+      <c r="U69" s="4" t="n">
         <v>0.652325034141541</v>
       </c>
-      <c r="V69" s="1" t="s">
+      <c r="V69" s="4" t="s">
         <v>394</v>
       </c>
     </row>
@@ -6934,16 +6949,16 @@
       <c r="F70" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="G70" s="1" t="n">
+      <c r="G70" s="4" t="n">
         <v>0.356336307805079</v>
       </c>
-      <c r="H70" s="1" t="n">
+      <c r="H70" s="4" t="n">
         <v>0.404741025373366</v>
       </c>
-      <c r="I70" s="1" t="n">
+      <c r="I70" s="4" t="n">
         <v>0.366743930266706</v>
       </c>
-      <c r="J70" s="4" t="s">
+      <c r="J70" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K70" s="1" t="s">
@@ -6961,25 +6976,25 @@
       <c r="O70" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P70" s="1" t="n">
+      <c r="P70" s="4" t="n">
         <v>0.238</v>
       </c>
-      <c r="Q70" s="1" t="n">
+      <c r="Q70" s="4" t="n">
         <v>0.26812207698822</v>
       </c>
-      <c r="R70" s="1" t="s">
+      <c r="R70" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="S70" s="1" t="n">
+      <c r="S70" s="4" t="n">
         <v>0.316893845796585</v>
       </c>
-      <c r="T70" s="1" t="s">
+      <c r="T70" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="U70" s="1" t="n">
+      <c r="U70" s="4" t="n">
         <v>0.183412209153175</v>
       </c>
-      <c r="V70" s="1" t="s">
+      <c r="V70" s="4" t="s">
         <v>399</v>
       </c>
     </row>
@@ -7002,16 +7017,16 @@
       <c r="F71" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="G71" s="1" t="n">
+      <c r="G71" s="4" t="n">
         <v>0.29299221414085</v>
       </c>
-      <c r="H71" s="1" t="n">
+      <c r="H71" s="4" t="n">
         <v>0.34454573939434</v>
       </c>
-      <c r="I71" s="1" t="n">
+      <c r="I71" s="4" t="n">
         <v>0.366743930266706</v>
       </c>
-      <c r="J71" s="4" t="s">
+      <c r="J71" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K71" s="1" t="s">
@@ -7029,25 +7044,25 @@
       <c r="O71" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P71" s="1" t="n">
+      <c r="P71" s="4" t="n">
         <v>0.754711111111111</v>
       </c>
-      <c r="Q71" s="1" t="n">
+      <c r="Q71" s="4" t="n">
         <v>-0.286446243524551</v>
       </c>
-      <c r="R71" s="1" t="s">
+      <c r="R71" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="S71" s="1" t="n">
+      <c r="S71" s="4" t="n">
         <v>-0.496313750743866</v>
       </c>
-      <c r="T71" s="1" t="s">
+      <c r="T71" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="U71" s="1" t="n">
+      <c r="U71" s="4" t="n">
         <v>-0.175291493535042</v>
       </c>
-      <c r="V71" s="1" t="s">
+      <c r="V71" s="4" t="s">
         <v>405</v>
       </c>
     </row>
@@ -7070,16 +7085,16 @@
       <c r="F72" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="G72" s="1" t="n">
+      <c r="G72" s="4" t="n">
         <v>0.336233820325778</v>
       </c>
-      <c r="H72" s="1" t="n">
+      <c r="H72" s="4" t="n">
         <v>0.373869993026298</v>
       </c>
-      <c r="I72" s="1" t="n">
+      <c r="I72" s="4" t="n">
         <v>0.366743930266706</v>
       </c>
-      <c r="J72" s="4" t="s">
+      <c r="J72" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K72" s="1" t="s">
@@ -7097,25 +7112,25 @@
       <c r="O72" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P72" s="1" t="n">
+      <c r="P72" s="4" t="n">
         <v>0.690166666666667</v>
       </c>
-      <c r="Q72" s="1" t="n">
+      <c r="Q72" s="4" t="n">
         <v>-0.0601777322590351</v>
       </c>
-      <c r="R72" s="1" t="s">
+      <c r="R72" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="S72" s="1" t="n">
+      <c r="S72" s="4" t="n">
         <v>0.0580632388591766</v>
       </c>
-      <c r="T72" s="1" t="s">
+      <c r="T72" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="U72" s="1" t="n">
+      <c r="U72" s="4" t="n">
         <v>-0.0655642226338387</v>
       </c>
-      <c r="V72" s="1" t="s">
+      <c r="V72" s="4" t="s">
         <v>411</v>
       </c>
     </row>
@@ -7138,16 +7153,16 @@
       <c r="F73" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G73" s="1" t="n">
+      <c r="G73" s="4" t="n">
         <v>0.333640320367901</v>
       </c>
-      <c r="H73" s="1" t="n">
+      <c r="H73" s="4" t="n">
         <v>0.344981025921527</v>
       </c>
-      <c r="I73" s="1" t="n">
+      <c r="I73" s="4" t="n">
         <v>0.366743930266706</v>
       </c>
-      <c r="J73" s="4" t="s">
+      <c r="J73" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K73" s="1" t="s">
@@ -7165,25 +7180,25 @@
       <c r="O73" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P73" s="1" t="n">
+      <c r="P73" s="4" t="n">
         <v>-3.37925</v>
       </c>
-      <c r="Q73" s="1" t="n">
+      <c r="Q73" s="4" t="n">
         <v>-0.176875710487366</v>
       </c>
-      <c r="R73" s="1" t="s">
+      <c r="R73" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="S73" s="1" t="n">
+      <c r="S73" s="4" t="n">
         <v>-0.195015996694565</v>
       </c>
-      <c r="T73" s="1" t="s">
+      <c r="T73" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="U73" s="1" t="n">
+      <c r="U73" s="4" t="n">
         <v>-0.280907928943634</v>
       </c>
-      <c r="V73" s="1" t="s">
+      <c r="V73" s="4" t="s">
         <v>417</v>
       </c>
     </row>
@@ -7206,16 +7221,16 @@
       <c r="F74" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G74" s="1" t="n">
+      <c r="G74" s="4" t="n">
         <v>0.31731725869394</v>
       </c>
-      <c r="H74" s="1" t="n">
+      <c r="H74" s="4" t="n">
         <v>0.32465495026894</v>
       </c>
-      <c r="I74" s="1" t="n">
+      <c r="I74" s="4" t="n">
         <v>0.366743930266706</v>
       </c>
-      <c r="J74" s="4" t="s">
+      <c r="J74" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K74" s="1" t="s">
@@ -7233,25 +7248,25 @@
       <c r="O74" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P74" s="1" t="n">
+      <c r="P74" s="4" t="n">
         <v>-1.041</v>
       </c>
-      <c r="Q74" s="1" t="n">
+      <c r="Q74" s="4" t="n">
         <v>-0.302627295255661</v>
       </c>
-      <c r="R74" s="1" t="s">
+      <c r="R74" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="S74" s="1" t="n">
+      <c r="S74" s="4" t="n">
         <v>-0.276667714118958</v>
       </c>
-      <c r="T74" s="1" t="s">
+      <c r="T74" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="U74" s="1" t="n">
+      <c r="U74" s="4" t="n">
         <v>-0.0518583953380585</v>
       </c>
-      <c r="V74" s="1" t="s">
+      <c r="V74" s="4" t="s">
         <v>421</v>
       </c>
     </row>
@@ -7274,16 +7289,16 @@
       <c r="F75" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="G75" s="1" t="n">
+      <c r="G75" s="4" t="n">
         <v>0.362226872116438</v>
       </c>
-      <c r="H75" s="1" t="n">
+      <c r="H75" s="4" t="n">
         <v>0.423398929201991</v>
       </c>
-      <c r="I75" s="1" t="n">
+      <c r="I75" s="4" t="n">
         <v>0.366743930266706</v>
       </c>
-      <c r="J75" s="4" t="s">
+      <c r="J75" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K75" s="1" t="s">
@@ -7301,25 +7316,25 @@
       <c r="O75" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P75" s="1" t="n">
+      <c r="P75" s="4" t="n">
         <v>0.229409090909091</v>
       </c>
-      <c r="Q75" s="1" t="n">
+      <c r="Q75" s="4" t="n">
         <v>-0.261492192745209</v>
       </c>
-      <c r="R75" s="1" t="s">
+      <c r="R75" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="S75" s="1" t="n">
+      <c r="S75" s="4" t="n">
         <v>-0.328327417373657</v>
       </c>
-      <c r="T75" s="1" t="s">
+      <c r="T75" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="U75" s="1" t="n">
+      <c r="U75" s="4" t="n">
         <v>-0.201325446367264</v>
       </c>
-      <c r="V75" s="1" t="s">
+      <c r="V75" s="4" t="s">
         <v>426</v>
       </c>
     </row>
@@ -7342,16 +7357,16 @@
       <c r="F76" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="G76" s="1" t="n">
+      <c r="G76" s="4" t="n">
         <v>0.395244398848695</v>
       </c>
-      <c r="H76" s="1" t="n">
+      <c r="H76" s="4" t="n">
         <v>0.446310788082194</v>
       </c>
-      <c r="I76" s="1" t="n">
+      <c r="I76" s="4" t="n">
         <v>0.366743930266706</v>
       </c>
-      <c r="J76" s="4" t="s">
+      <c r="J76" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K76" s="1" t="s">
@@ -7369,25 +7384,25 @@
       <c r="O76" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P76" s="1" t="n">
+      <c r="P76" s="4" t="n">
         <v>0.276064516129032</v>
       </c>
-      <c r="Q76" s="1" t="n">
+      <c r="Q76" s="4" t="n">
         <v>0.172280728816986</v>
       </c>
-      <c r="R76" s="1" t="s">
+      <c r="R76" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="S76" s="1" t="n">
+      <c r="S76" s="4" t="n">
         <v>0.152596548199654</v>
       </c>
-      <c r="T76" s="1" t="s">
+      <c r="T76" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="U76" s="1" t="n">
+      <c r="U76" s="4" t="n">
         <v>0.0447682775557041</v>
       </c>
-      <c r="V76" s="1" t="s">
+      <c r="V76" s="4" t="s">
         <v>432</v>
       </c>
     </row>
@@ -7410,16 +7425,16 @@
       <c r="F77" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="G77" s="1" t="n">
+      <c r="G77" s="4" t="n">
         <v>0.317087662578003</v>
       </c>
-      <c r="H77" s="1" t="n">
+      <c r="H77" s="4" t="n">
         <v>0.329601951032189</v>
       </c>
-      <c r="I77" s="1" t="n">
+      <c r="I77" s="4" t="n">
         <v>0.366743930266706</v>
       </c>
-      <c r="J77" s="4" t="s">
+      <c r="J77" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K77" s="1" t="s">
@@ -7437,25 +7452,25 @@
       <c r="O77" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P77" s="1" t="n">
+      <c r="P77" s="4" t="n">
         <v>0.28725</v>
       </c>
-      <c r="Q77" s="1" t="n">
+      <c r="Q77" s="4" t="n">
         <v>0.311520427465439</v>
       </c>
-      <c r="R77" s="1" t="s">
+      <c r="R77" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="S77" s="1" t="n">
+      <c r="S77" s="4" t="n">
         <v>0.276807188987732</v>
       </c>
-      <c r="T77" s="1" t="s">
+      <c r="T77" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="U77" s="1" t="n">
+      <c r="U77" s="4" t="n">
         <v>0.289101004600525</v>
       </c>
-      <c r="V77" s="1" t="s">
+      <c r="V77" s="4" t="s">
         <v>438</v>
       </c>
     </row>
@@ -7478,16 +7493,16 @@
       <c r="F78" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G78" s="1" t="n">
+      <c r="G78" s="4" t="n">
         <v>0.32774852478171</v>
       </c>
-      <c r="H78" s="1" t="n">
+      <c r="H78" s="4" t="n">
         <v>0.338146534608774</v>
       </c>
-      <c r="I78" s="1" t="n">
+      <c r="I78" s="4" t="n">
         <v>0.366743930266706</v>
       </c>
-      <c r="J78" s="4" t="s">
+      <c r="J78" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K78" s="1" t="s">
@@ -7505,25 +7520,25 @@
       <c r="O78" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P78" s="1" t="n">
+      <c r="P78" s="4" t="n">
         <v>0.09725</v>
       </c>
-      <c r="Q78" s="1" t="n">
+      <c r="Q78" s="4" t="n">
         <v>0.00584767200052738</v>
       </c>
-      <c r="R78" s="1" t="s">
+      <c r="R78" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="S78" s="1" t="n">
+      <c r="S78" s="4" t="n">
         <v>-0.13735543191433</v>
       </c>
-      <c r="T78" s="1" t="s">
+      <c r="T78" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="U78" s="1" t="n">
+      <c r="U78" s="4" t="n">
         <v>-0.0840290486812592</v>
       </c>
-      <c r="V78" s="1" t="s">
+      <c r="V78" s="4" t="s">
         <v>444</v>
       </c>
     </row>
@@ -7546,16 +7561,16 @@
       <c r="F79" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="G79" s="1" t="n">
+      <c r="G79" s="4" t="n">
         <v>0.583950677459307</v>
       </c>
-      <c r="H79" s="1" t="n">
+      <c r="H79" s="4" t="n">
         <v>0.620242453272353</v>
       </c>
-      <c r="I79" s="1" t="n">
+      <c r="I79" s="4" t="n">
         <v>0.699354786228482</v>
       </c>
-      <c r="J79" s="4" t="s">
+      <c r="J79" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K79" s="1" t="s">
@@ -7573,25 +7588,25 @@
       <c r="O79" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P79" s="1" t="n">
+      <c r="P79" s="4" t="n">
         <v>1.568</v>
       </c>
-      <c r="Q79" s="1" t="n">
+      <c r="Q79" s="4" t="n">
         <v>-1.51880037784576</v>
       </c>
-      <c r="R79" s="1" t="s">
+      <c r="R79" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="S79" s="1" t="n">
+      <c r="S79" s="4" t="n">
         <v>-1.59070682525635</v>
       </c>
-      <c r="T79" s="1" t="s">
+      <c r="T79" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="U79" s="1" t="n">
+      <c r="U79" s="4" t="n">
         <v>-1.72458720207214</v>
       </c>
-      <c r="V79" s="1" t="s">
+      <c r="V79" s="4" t="s">
         <v>451</v>
       </c>
     </row>
@@ -7614,16 +7629,16 @@
       <c r="F80" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="G80" s="1" t="n">
+      <c r="G80" s="4" t="n">
         <v>0.678217645192001</v>
       </c>
-      <c r="H80" s="1" t="n">
+      <c r="H80" s="4" t="n">
         <v>0.754749831115056</v>
       </c>
-      <c r="I80" s="1" t="n">
+      <c r="I80" s="4" t="n">
         <v>0.699354786228482</v>
       </c>
-      <c r="J80" s="4" t="s">
+      <c r="J80" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K80" s="1" t="s">
@@ -7641,25 +7656,25 @@
       <c r="O80" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P80" s="1" t="n">
+      <c r="P80" s="4" t="n">
         <v>1.23286486486487</v>
       </c>
-      <c r="Q80" s="1" t="n">
+      <c r="Q80" s="4" t="n">
         <v>-1.55729973316193</v>
       </c>
-      <c r="R80" s="1" t="s">
+      <c r="R80" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="S80" s="1" t="n">
+      <c r="S80" s="4" t="n">
         <v>-1.79033625125885</v>
       </c>
-      <c r="T80" s="1" t="s">
+      <c r="T80" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="U80" s="1" t="n">
+      <c r="U80" s="4" t="n">
         <v>-1.27775073051453</v>
       </c>
-      <c r="V80" s="1" t="s">
+      <c r="V80" s="4" t="s">
         <v>457</v>
       </c>
     </row>
@@ -7682,16 +7697,16 @@
       <c r="F81" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="G81" s="1" t="n">
+      <c r="G81" s="4" t="n">
         <v>0.685145101740868</v>
       </c>
-      <c r="H81" s="1" t="n">
+      <c r="H81" s="4" t="n">
         <v>0.747107150368096</v>
       </c>
-      <c r="I81" s="1" t="n">
+      <c r="I81" s="4" t="n">
         <v>0.699354786228482</v>
       </c>
-      <c r="J81" s="4" t="s">
+      <c r="J81" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K81" s="1" t="s">
@@ -7709,25 +7724,25 @@
       <c r="O81" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P81" s="1" t="n">
+      <c r="P81" s="4" t="n">
         <v>0.249818181818182</v>
       </c>
-      <c r="Q81" s="1" t="n">
+      <c r="Q81" s="4" t="n">
         <v>-1.09301912784576</v>
       </c>
-      <c r="R81" s="1" t="s">
+      <c r="R81" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="S81" s="1" t="n">
+      <c r="S81" s="4" t="n">
         <v>-0.858746111392975</v>
       </c>
-      <c r="T81" s="1" t="s">
+      <c r="T81" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="U81" s="1" t="n">
+      <c r="U81" s="4" t="n">
         <v>-0.91578209400177</v>
       </c>
-      <c r="V81" s="1" t="s">
+      <c r="V81" s="4" t="s">
         <v>463</v>
       </c>
     </row>
@@ -7750,16 +7765,16 @@
       <c r="F82" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G82" s="1" t="n">
+      <c r="G82" s="4" t="n">
         <v>0.605368817559344</v>
       </c>
-      <c r="H82" s="1" t="n">
+      <c r="H82" s="4" t="n">
         <v>0.607360370913649</v>
       </c>
-      <c r="I82" s="1" t="n">
+      <c r="I82" s="4" t="n">
         <v>0.699354786228482</v>
       </c>
-      <c r="J82" s="4" t="s">
+      <c r="J82" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K82" s="1" t="s">
@@ -7777,25 +7792,25 @@
       <c r="O82" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P82" s="1" t="n">
+      <c r="P82" s="4" t="n">
         <v>1.053</v>
       </c>
-      <c r="Q82" s="1" t="n">
+      <c r="Q82" s="4" t="n">
         <v>-0.992594361305237</v>
       </c>
-      <c r="R82" s="1" t="s">
+      <c r="R82" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="S82" s="1" t="n">
+      <c r="S82" s="4" t="n">
         <v>-1.11653518676758</v>
       </c>
-      <c r="T82" s="1" t="s">
+      <c r="T82" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="U82" s="1" t="n">
+      <c r="U82" s="4" t="n">
         <v>-1.06239771842957</v>
       </c>
-      <c r="V82" s="1" t="s">
+      <c r="V82" s="4" t="s">
         <v>468</v>
       </c>
     </row>
@@ -7818,16 +7833,16 @@
       <c r="F83" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="G83" s="1" t="n">
+      <c r="G83" s="4" t="n">
         <v>0.677457933169489</v>
       </c>
-      <c r="H83" s="1" t="n">
+      <c r="H83" s="4" t="n">
         <v>0.728354113395973</v>
       </c>
-      <c r="I83" s="1" t="n">
+      <c r="I83" s="4" t="n">
         <v>0.699354786228482</v>
       </c>
-      <c r="J83" s="4" t="s">
+      <c r="J83" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K83" s="1" t="s">
@@ -7845,25 +7860,25 @@
       <c r="O83" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P83" s="1" t="n">
+      <c r="P83" s="4" t="n">
         <v>1.76876923076923</v>
       </c>
-      <c r="Q83" s="1" t="n">
+      <c r="Q83" s="4" t="n">
         <v>-0.874294102191925</v>
       </c>
-      <c r="R83" s="1" t="s">
+      <c r="R83" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="S83" s="1" t="n">
+      <c r="S83" s="4" t="n">
         <v>-0.846310138702393</v>
       </c>
-      <c r="T83" s="1" t="s">
+      <c r="T83" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="U83" s="1" t="n">
+      <c r="U83" s="4" t="n">
         <v>-0.872773408889771</v>
       </c>
-      <c r="V83" s="1" t="s">
+      <c r="V83" s="4" t="s">
         <v>474</v>
       </c>
     </row>
@@ -7886,16 +7901,16 @@
       <c r="F84" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G84" s="1" t="n">
+      <c r="G84" s="4" t="n">
         <v>0.601654845462221</v>
       </c>
-      <c r="H84" s="1" t="n">
+      <c r="H84" s="4" t="n">
         <v>0.606185463222776</v>
       </c>
-      <c r="I84" s="1" t="n">
+      <c r="I84" s="4" t="n">
         <v>0.699354786228482</v>
       </c>
-      <c r="J84" s="4" t="s">
+      <c r="J84" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K84" s="1" t="s">
@@ -7913,25 +7928,25 @@
       <c r="O84" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P84" s="1" t="n">
+      <c r="P84" s="4" t="n">
         <v>-1.4275</v>
       </c>
-      <c r="Q84" s="1" t="n">
+      <c r="Q84" s="4" t="n">
         <v>-1.25039529800415</v>
       </c>
-      <c r="R84" s="1" t="s">
+      <c r="R84" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="S84" s="1" t="n">
+      <c r="S84" s="4" t="n">
         <v>-1.27189159393311</v>
       </c>
-      <c r="T84" s="1" t="s">
+      <c r="T84" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="U84" s="1" t="n">
+      <c r="U84" s="4" t="n">
         <v>-1.24665129184723</v>
       </c>
-      <c r="V84" s="1" t="s">
+      <c r="V84" s="4" t="s">
         <v>479</v>
       </c>
     </row>
@@ -7954,16 +7969,16 @@
       <c r="F85" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="G85" s="1" t="n">
+      <c r="G85" s="4" t="n">
         <v>0.57604549451368</v>
       </c>
-      <c r="H85" s="1" t="n">
+      <c r="H85" s="4" t="n">
         <v>0.607705221361197</v>
       </c>
-      <c r="I85" s="1" t="n">
+      <c r="I85" s="4" t="n">
         <v>0.699354786228482</v>
       </c>
-      <c r="J85" s="4" t="s">
+      <c r="J85" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K85" s="1" t="s">
@@ -7981,25 +7996,25 @@
       <c r="O85" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P85" s="1" t="n">
+      <c r="P85" s="4" t="n">
         <v>-3.33664705882353</v>
       </c>
-      <c r="Q85" s="1" t="n">
+      <c r="Q85" s="4" t="n">
         <v>-0.355370551347733</v>
       </c>
-      <c r="R85" s="1" t="s">
+      <c r="R85" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="S85" s="1" t="n">
+      <c r="S85" s="4" t="n">
         <v>-0.40187793970108</v>
       </c>
-      <c r="T85" s="1" t="s">
+      <c r="T85" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="U85" s="1" t="n">
+      <c r="U85" s="4" t="n">
         <v>-0.367295414209366</v>
       </c>
-      <c r="V85" s="1" t="s">
+      <c r="V85" s="4" t="s">
         <v>485</v>
       </c>
     </row>
@@ -8022,16 +8037,16 @@
       <c r="F86" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="G86" s="1" t="n">
+      <c r="G86" s="4" t="n">
         <v>0.709099147704153</v>
       </c>
-      <c r="H86" s="1" t="n">
+      <c r="H86" s="4" t="n">
         <v>0.806555787189469</v>
       </c>
-      <c r="I86" s="1" t="n">
+      <c r="I86" s="4" t="n">
         <v>0.699354786228482</v>
       </c>
-      <c r="J86" s="4" t="s">
+      <c r="J86" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K86" s="1" t="s">
@@ -8049,25 +8064,25 @@
       <c r="O86" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P86" s="1" t="n">
+      <c r="P86" s="4" t="n">
         <v>0.290230769230769</v>
       </c>
-      <c r="Q86" s="1" t="n">
+      <c r="Q86" s="4" t="n">
         <v>-0.693602085113525</v>
       </c>
-      <c r="R86" s="1" t="s">
+      <c r="R86" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="S86" s="1" t="n">
+      <c r="S86" s="4" t="n">
         <v>-1.03384745121002</v>
       </c>
-      <c r="T86" s="1" t="s">
+      <c r="T86" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="U86" s="1" t="n">
+      <c r="U86" s="4" t="n">
         <v>-1.08062934875488</v>
       </c>
-      <c r="V86" s="1" t="s">
+      <c r="V86" s="4" t="s">
         <v>491</v>
       </c>
     </row>
@@ -8090,16 +8105,16 @@
       <c r="F87" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="G87" s="1" t="n">
+      <c r="G87" s="4" t="n">
         <v>0.756204691678541</v>
       </c>
-      <c r="H87" s="1" t="n">
+      <c r="H87" s="4" t="n">
         <v>0.903049987413756</v>
       </c>
-      <c r="I87" s="1" t="n">
+      <c r="I87" s="4" t="n">
         <v>0.699354786228482</v>
       </c>
-      <c r="J87" s="4" t="s">
+      <c r="J87" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K87" s="1" t="s">
@@ -8117,25 +8132,25 @@
       <c r="O87" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P87" s="1" t="n">
+      <c r="P87" s="4" t="n">
         <v>1.4409347826087</v>
       </c>
-      <c r="Q87" s="1" t="n">
+      <c r="Q87" s="4" t="n">
         <v>-1.70959794521332</v>
       </c>
-      <c r="R87" s="1" t="s">
+      <c r="R87" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="S87" s="1" t="n">
+      <c r="S87" s="4" t="n">
         <v>-1.72623407840729</v>
       </c>
-      <c r="T87" s="1" t="s">
+      <c r="T87" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="U87" s="1" t="n">
+      <c r="U87" s="4" t="n">
         <v>-1.78623926639557</v>
       </c>
-      <c r="V87" s="1" t="s">
+      <c r="V87" s="4" t="s">
         <v>497</v>
       </c>
     </row>
@@ -8158,16 +8173,16 @@
       <c r="F88" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G88" s="1" t="n">
+      <c r="G88" s="4" t="n">
         <v>0.627410477441884</v>
       </c>
-      <c r="H88" s="1" t="n">
+      <c r="H88" s="4" t="n">
         <v>0.627410477441884</v>
       </c>
-      <c r="I88" s="1" t="n">
+      <c r="I88" s="4" t="n">
         <v>0.699354786228482</v>
       </c>
-      <c r="J88" s="4" t="s">
+      <c r="J88" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K88" s="1" t="s">
@@ -8185,25 +8200,25 @@
       <c r="O88" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P88" s="1" t="n">
+      <c r="P88" s="4" t="n">
         <v>-0.567</v>
       </c>
-      <c r="Q88" s="1" t="n">
+      <c r="Q88" s="4" t="n">
         <v>-0.845776557922363</v>
       </c>
-      <c r="R88" s="1" t="s">
+      <c r="R88" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="S88" s="1" t="n">
+      <c r="S88" s="4" t="n">
         <v>-0.919479370117188</v>
       </c>
-      <c r="T88" s="1" t="s">
+      <c r="T88" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="U88" s="1" t="n">
+      <c r="U88" s="4" t="n">
         <v>-1.06495153903961</v>
       </c>
-      <c r="V88" s="1" t="s">
+      <c r="V88" s="4" t="s">
         <v>501</v>
       </c>
     </row>
@@ -8226,16 +8241,16 @@
       <c r="F89" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G89" s="1" t="n">
+      <c r="G89" s="4" t="n">
         <v>0.603557273631591</v>
       </c>
-      <c r="H89" s="1" t="n">
+      <c r="H89" s="4" t="n">
         <v>0.603557273631591</v>
       </c>
-      <c r="I89" s="1" t="n">
+      <c r="I89" s="4" t="n">
         <v>0.699354786228482</v>
       </c>
-      <c r="J89" s="4" t="s">
+      <c r="J89" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K89" s="1" t="s">
@@ -8253,25 +8268,25 @@
       <c r="O89" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P89" s="1" t="n">
+      <c r="P89" s="4" t="n">
         <v>-0.539</v>
       </c>
-      <c r="Q89" s="1" t="n">
+      <c r="Q89" s="4" t="n">
         <v>-0.5459223985672</v>
       </c>
-      <c r="R89" s="1" t="s">
+      <c r="R89" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="S89" s="1" t="n">
+      <c r="S89" s="4" t="n">
         <v>-0.504643678665161</v>
       </c>
-      <c r="T89" s="1" t="s">
+      <c r="T89" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="U89" s="1" t="n">
+      <c r="U89" s="4" t="n">
         <v>-0.676406025886536</v>
       </c>
-      <c r="V89" s="1" t="s">
+      <c r="V89" s="4" t="s">
         <v>505</v>
       </c>
     </row>
@@ -8294,16 +8309,16 @@
       <c r="F90" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="G90" s="1" t="n">
+      <c r="G90" s="4" t="n">
         <v>0.616499611782913</v>
       </c>
-      <c r="H90" s="1" t="n">
+      <c r="H90" s="4" t="n">
         <v>0.626750833520061</v>
       </c>
-      <c r="I90" s="1" t="n">
+      <c r="I90" s="4" t="n">
         <v>0.699354786228482</v>
       </c>
-      <c r="J90" s="4" t="s">
+      <c r="J90" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K90" s="1" t="s">
@@ -8321,25 +8336,25 @@
       <c r="O90" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P90" s="1" t="n">
+      <c r="P90" s="4" t="n">
         <v>0.178230769230769</v>
       </c>
-      <c r="Q90" s="1" t="n">
+      <c r="Q90" s="4" t="n">
         <v>-0.592007994651794</v>
       </c>
-      <c r="R90" s="1" t="s">
+      <c r="R90" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="S90" s="1" t="n">
+      <c r="S90" s="4" t="n">
         <v>-0.649442553520203</v>
       </c>
-      <c r="T90" s="1" t="s">
+      <c r="T90" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="U90" s="1" t="n">
+      <c r="U90" s="4" t="n">
         <v>-0.420591831207275</v>
       </c>
-      <c r="V90" s="1" t="s">
+      <c r="V90" s="4" t="s">
         <v>511</v>
       </c>
     </row>
@@ -8362,16 +8377,16 @@
       <c r="F91" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="G91" s="1" t="n">
+      <c r="G91" s="4" t="n">
         <v>0.642940668026602</v>
       </c>
-      <c r="H91" s="1" t="n">
+      <c r="H91" s="4" t="n">
         <v>0.669000549981463</v>
       </c>
-      <c r="I91" s="1" t="n">
+      <c r="I91" s="4" t="n">
         <v>0.699354786228482</v>
       </c>
-      <c r="J91" s="4" t="s">
+      <c r="J91" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K91" s="1" t="s">
@@ -8389,25 +8404,25 @@
       <c r="O91" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P91" s="1" t="n">
+      <c r="P91" s="4" t="n">
         <v>0.761666666666667</v>
       </c>
-      <c r="Q91" s="1" t="n">
+      <c r="Q91" s="4" t="n">
         <v>-0.244077444076538</v>
       </c>
-      <c r="R91" s="1" t="s">
+      <c r="R91" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="S91" s="1" t="n">
+      <c r="S91" s="4" t="n">
         <v>-0.0953975170850754</v>
       </c>
-      <c r="T91" s="1" t="s">
+      <c r="T91" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="U91" s="1" t="n">
+      <c r="U91" s="4" t="n">
         <v>0.0718622282147408</v>
       </c>
-      <c r="V91" s="1" t="s">
+      <c r="V91" s="4" t="s">
         <v>517</v>
       </c>
     </row>
@@ -8430,16 +8445,16 @@
       <c r="F92" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G92" s="1" t="n">
+      <c r="G92" s="4" t="n">
         <v>0.555408015742515</v>
       </c>
-      <c r="H92" s="1" t="n">
+      <c r="H92" s="4" t="n">
         <v>0.564013611231015</v>
       </c>
-      <c r="I92" s="1" t="n">
+      <c r="I92" s="4" t="n">
         <v>0.699354786228482</v>
       </c>
-      <c r="J92" s="4" t="s">
+      <c r="J92" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K92" s="1" t="s">
@@ -8457,25 +8472,25 @@
       <c r="O92" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P92" s="1" t="n">
+      <c r="P92" s="4" t="n">
         <v>-0.16075</v>
       </c>
-      <c r="Q92" s="1" t="n">
+      <c r="Q92" s="4" t="n">
         <v>-0.499768972396851</v>
       </c>
-      <c r="R92" s="1" t="s">
+      <c r="R92" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="S92" s="1" t="n">
+      <c r="S92" s="4" t="n">
         <v>-0.339912235736847</v>
       </c>
-      <c r="T92" s="1" t="s">
+      <c r="T92" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="U92" s="1" t="n">
+      <c r="U92" s="4" t="n">
         <v>-0.134746372699738</v>
       </c>
-      <c r="V92" s="1" t="s">
+      <c r="V92" s="4" t="s">
         <v>523</v>
       </c>
     </row>
@@ -8498,16 +8513,16 @@
       <c r="F93" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="G93" s="1" t="n">
+      <c r="G93" s="4" t="n">
         <v>0.881476750590711</v>
       </c>
-      <c r="H93" s="1" t="n">
+      <c r="H93" s="4" t="n">
         <v>1.06586451437578</v>
       </c>
-      <c r="I93" s="1" t="n">
+      <c r="I93" s="4" t="n">
         <v>0.699354786228482</v>
       </c>
-      <c r="J93" s="4" t="s">
+      <c r="J93" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K93" s="1" t="s">
@@ -8525,25 +8540,25 @@
       <c r="O93" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P93" s="1" t="n">
+      <c r="P93" s="4" t="n">
         <v>0.940444444444445</v>
       </c>
-      <c r="Q93" s="1" t="n">
+      <c r="Q93" s="4" t="n">
         <v>0.878403723239899</v>
       </c>
-      <c r="R93" s="1" t="s">
+      <c r="R93" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="S93" s="1" t="n">
+      <c r="S93" s="4" t="n">
         <v>0.777448356151581</v>
       </c>
-      <c r="T93" s="1" t="s">
+      <c r="T93" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="U93" s="1" t="n">
+      <c r="U93" s="4" t="n">
         <v>0.813851535320282</v>
       </c>
-      <c r="V93" s="1" t="s">
+      <c r="V93" s="4" t="s">
         <v>529</v>
       </c>
     </row>
@@ -8566,16 +8581,16 @@
       <c r="F94" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="G94" s="1" t="n">
+      <c r="G94" s="4" t="n">
         <v>0.636477922841248</v>
       </c>
-      <c r="H94" s="1" t="n">
+      <c r="H94" s="4" t="n">
         <v>0.651768941221595</v>
       </c>
-      <c r="I94" s="1" t="n">
+      <c r="I94" s="4" t="n">
         <v>0.699354786228482</v>
       </c>
-      <c r="J94" s="4" t="s">
+      <c r="J94" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K94" s="1" t="s">
@@ -8593,25 +8608,25 @@
       <c r="O94" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P94" s="1" t="n">
+      <c r="P94" s="4" t="n">
         <v>-0.333333333333333</v>
       </c>
-      <c r="Q94" s="1" t="n">
+      <c r="Q94" s="4" t="n">
         <v>0.816779911518097</v>
       </c>
-      <c r="R94" s="1" t="s">
+      <c r="R94" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="S94" s="1" t="n">
+      <c r="S94" s="4" t="n">
         <v>0.652395784854889</v>
       </c>
-      <c r="T94" s="1" t="s">
+      <c r="T94" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="U94" s="1" t="n">
+      <c r="U94" s="4" t="n">
         <v>0.89287680387497</v>
       </c>
-      <c r="V94" s="1" t="s">
+      <c r="V94" s="4" t="s">
         <v>535</v>
       </c>
     </row>
@@ -8634,16 +8649,16 @@
       <c r="F95" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="G95" s="1" t="n">
+      <c r="G95" s="4" t="n">
         <v>0.868243066887327</v>
       </c>
-      <c r="H95" s="1" t="n">
+      <c r="H95" s="4" t="n">
         <v>0.901753315303994</v>
       </c>
-      <c r="I95" s="1" t="n">
+      <c r="I95" s="4" t="n">
         <v>0.993052169009527</v>
       </c>
-      <c r="J95" s="4" t="s">
+      <c r="J95" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K95" s="1" t="s">
@@ -8661,25 +8676,25 @@
       <c r="O95" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P95" s="1" t="n">
+      <c r="P95" s="4" t="n">
         <v>-1.84144444444444</v>
       </c>
-      <c r="Q95" s="1" t="n">
+      <c r="Q95" s="4" t="n">
         <v>1.28538656234741</v>
       </c>
-      <c r="R95" s="1" t="s">
+      <c r="R95" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="S95" s="1" t="n">
+      <c r="S95" s="4" t="n">
         <v>1.28837358951569</v>
       </c>
-      <c r="T95" s="1" t="s">
+      <c r="T95" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="U95" s="1" t="n">
+      <c r="U95" s="4" t="n">
         <v>1.36528205871582</v>
       </c>
-      <c r="V95" s="1" t="s">
+      <c r="V95" s="4" t="s">
         <v>542</v>
       </c>
     </row>
@@ -8702,16 +8717,16 @@
       <c r="F96" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="G96" s="1" t="n">
+      <c r="G96" s="4" t="n">
         <v>0.956389544842926</v>
       </c>
-      <c r="H96" s="1" t="n">
+      <c r="H96" s="4" t="n">
         <v>1.12821807117139</v>
       </c>
-      <c r="I96" s="1" t="n">
+      <c r="I96" s="4" t="n">
         <v>0.993052169009527</v>
       </c>
-      <c r="J96" s="4" t="s">
+      <c r="J96" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K96" s="1" t="s">
@@ -8729,25 +8744,25 @@
       <c r="O96" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P96" s="1" t="n">
+      <c r="P96" s="4" t="n">
         <v>0.156804878048781</v>
       </c>
-      <c r="Q96" s="1" t="n">
+      <c r="Q96" s="4" t="n">
         <v>-0.0273895356804133</v>
       </c>
-      <c r="R96" s="1" t="s">
+      <c r="R96" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="S96" s="1" t="n">
+      <c r="S96" s="4" t="n">
         <v>0.146755397319794</v>
       </c>
-      <c r="T96" s="1" t="s">
+      <c r="T96" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="U96" s="1" t="n">
+      <c r="U96" s="4" t="n">
         <v>0.315928548574448</v>
       </c>
-      <c r="V96" s="1" t="s">
+      <c r="V96" s="4" t="s">
         <v>548</v>
       </c>
     </row>
@@ -8770,16 +8785,16 @@
       <c r="F97" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="G97" s="1" t="n">
+      <c r="G97" s="4" t="n">
         <v>1.00794004107397</v>
       </c>
-      <c r="H97" s="1" t="n">
+      <c r="H97" s="4" t="n">
         <v>1.172303452854</v>
       </c>
-      <c r="I97" s="1" t="n">
+      <c r="I97" s="4" t="n">
         <v>0.993052169009527</v>
       </c>
-      <c r="J97" s="4" t="s">
+      <c r="J97" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K97" s="1" t="s">
@@ -8797,25 +8812,25 @@
       <c r="O97" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P97" s="1" t="n">
+      <c r="P97" s="4" t="n">
         <v>0.075768181818182</v>
       </c>
-      <c r="Q97" s="1" t="n">
+      <c r="Q97" s="4" t="n">
         <v>1.50446283817291</v>
       </c>
-      <c r="R97" s="1" t="s">
+      <c r="R97" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="S97" s="1" t="n">
+      <c r="S97" s="4" t="n">
         <v>1.40176367759705</v>
       </c>
-      <c r="T97" s="1" t="s">
+      <c r="T97" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="U97" s="1" t="n">
+      <c r="U97" s="4" t="n">
         <v>1.43995463848114</v>
       </c>
-      <c r="V97" s="1" t="s">
+      <c r="V97" s="4" t="s">
         <v>554</v>
       </c>
     </row>
@@ -8838,16 +8853,16 @@
       <c r="F98" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="G98" s="1" t="n">
+      <c r="G98" s="4" t="n">
         <v>0.84225821897392</v>
       </c>
-      <c r="H98" s="1" t="n">
+      <c r="H98" s="4" t="n">
         <v>0.891414701553613</v>
       </c>
-      <c r="I98" s="1" t="n">
+      <c r="I98" s="4" t="n">
         <v>0.993052169009527</v>
       </c>
-      <c r="J98" s="4" t="s">
+      <c r="J98" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K98" s="1" t="s">
@@ -8865,25 +8880,25 @@
       <c r="O98" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P98" s="1" t="n">
+      <c r="P98" s="4" t="n">
         <v>-0.718777777777778</v>
       </c>
-      <c r="Q98" s="1" t="n">
+      <c r="Q98" s="4" t="n">
         <v>-0.583972990512848</v>
       </c>
-      <c r="R98" s="1" t="s">
+      <c r="R98" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="S98" s="1" t="n">
+      <c r="S98" s="4" t="n">
         <v>-0.48213717341423</v>
       </c>
-      <c r="T98" s="1" t="s">
+      <c r="T98" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="U98" s="1" t="n">
+      <c r="U98" s="4" t="n">
         <v>-0.275334626436234</v>
       </c>
-      <c r="V98" s="1" t="s">
+      <c r="V98" s="4" t="s">
         <v>560</v>
       </c>
     </row>
@@ -8906,16 +8921,16 @@
       <c r="F99" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="G99" s="1" t="n">
+      <c r="G99" s="4" t="n">
         <v>0.651114515920867</v>
       </c>
-      <c r="H99" s="1" t="n">
+      <c r="H99" s="4" t="n">
         <v>0.670784717612831</v>
       </c>
-      <c r="I99" s="1" t="n">
+      <c r="I99" s="4" t="n">
         <v>0.993052169009527</v>
       </c>
-      <c r="J99" s="4" t="s">
+      <c r="J99" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K99" s="1" t="s">
@@ -8933,25 +8948,25 @@
       <c r="O99" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P99" s="1" t="n">
+      <c r="P99" s="4" t="n">
         <v>-0.254142857142857</v>
       </c>
-      <c r="Q99" s="1" t="n">
+      <c r="Q99" s="4" t="n">
         <v>-0.948001384735107</v>
       </c>
-      <c r="R99" s="1" t="s">
+      <c r="R99" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="S99" s="1" t="n">
+      <c r="S99" s="4" t="n">
         <v>-1.14812195301056</v>
       </c>
-      <c r="T99" s="1" t="s">
+      <c r="T99" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="U99" s="1" t="n">
+      <c r="U99" s="4" t="n">
         <v>-0.974787950515747</v>
       </c>
-      <c r="V99" s="1" t="s">
+      <c r="V99" s="4" t="s">
         <v>566</v>
       </c>
     </row>
@@ -8974,16 +8989,16 @@
       <c r="F100" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="G100" s="1" t="n">
+      <c r="G100" s="4" t="n">
         <v>1.11881030938028</v>
       </c>
-      <c r="H100" s="1" t="n">
+      <c r="H100" s="4" t="n">
         <v>1.35768157601878</v>
       </c>
-      <c r="I100" s="1" t="n">
+      <c r="I100" s="4" t="n">
         <v>0.993052169009527</v>
       </c>
-      <c r="J100" s="4" t="s">
+      <c r="J100" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K100" s="1" t="s">
@@ -9001,25 +9016,25 @@
       <c r="O100" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P100" s="1" t="n">
+      <c r="P100" s="4" t="n">
         <v>1.20353571428571</v>
       </c>
-      <c r="Q100" s="1" t="n">
+      <c r="Q100" s="4" t="n">
         <v>-1.64683341979981</v>
       </c>
-      <c r="R100" s="1" t="s">
+      <c r="R100" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="S100" s="1" t="n">
+      <c r="S100" s="4" t="n">
         <v>-1.42527163028717</v>
       </c>
-      <c r="T100" s="1" t="s">
+      <c r="T100" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="U100" s="1" t="n">
+      <c r="U100" s="4" t="n">
         <v>-1.72440600395203</v>
       </c>
-      <c r="V100" s="1" t="s">
+      <c r="V100" s="4" t="s">
         <v>572</v>
       </c>
     </row>
@@ -9042,16 +9057,16 @@
       <c r="F101" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="G101" s="1" t="n">
+      <c r="G101" s="4" t="n">
         <v>1.03279049460619</v>
       </c>
-      <c r="H101" s="1" t="n">
+      <c r="H101" s="4" t="n">
         <v>1.14920384929737</v>
       </c>
-      <c r="I101" s="1" t="n">
+      <c r="I101" s="4" t="n">
         <v>0.993052169009527</v>
       </c>
-      <c r="J101" s="4" t="s">
+      <c r="J101" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K101" s="1" t="s">
@@ -9069,25 +9084,25 @@
       <c r="O101" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P101" s="1" t="n">
+      <c r="P101" s="4" t="n">
         <v>0.517470588235294</v>
       </c>
-      <c r="Q101" s="1" t="n">
+      <c r="Q101" s="4" t="n">
         <v>-0.545189559459686</v>
       </c>
-      <c r="R101" s="1" t="s">
+      <c r="R101" s="4" t="s">
         <v>575</v>
       </c>
-      <c r="S101" s="1" t="n">
+      <c r="S101" s="4" t="n">
         <v>-0.727441251277924</v>
       </c>
-      <c r="T101" s="1" t="s">
+      <c r="T101" s="4" t="s">
         <v>576</v>
       </c>
-      <c r="U101" s="1" t="n">
+      <c r="U101" s="4" t="n">
         <v>-0.800283014774323</v>
       </c>
-      <c r="V101" s="1" t="s">
+      <c r="V101" s="4" t="s">
         <v>577</v>
       </c>
     </row>
@@ -9110,16 +9125,16 @@
       <c r="F102" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="G102" s="1" t="n">
+      <c r="G102" s="4" t="n">
         <v>1.09751198813096</v>
       </c>
-      <c r="H102" s="1" t="n">
+      <c r="H102" s="4" t="n">
         <v>1.26629192290519</v>
       </c>
-      <c r="I102" s="1" t="n">
+      <c r="I102" s="4" t="n">
         <v>0.993052169009527</v>
       </c>
-      <c r="J102" s="4" t="s">
+      <c r="J102" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K102" s="1" t="s">
@@ -9137,25 +9152,25 @@
       <c r="O102" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P102" s="1" t="n">
+      <c r="P102" s="4" t="n">
         <v>1.87771428571429</v>
       </c>
-      <c r="Q102" s="1" t="n">
+      <c r="Q102" s="4" t="n">
         <v>-1.21106469631195</v>
       </c>
-      <c r="R102" s="1" t="s">
+      <c r="R102" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="S102" s="1" t="n">
+      <c r="S102" s="4" t="n">
         <v>-1.12462604045868</v>
       </c>
-      <c r="T102" s="1" t="s">
+      <c r="T102" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="U102" s="1" t="n">
+      <c r="U102" s="4" t="n">
         <v>-1.15959393978119</v>
       </c>
-      <c r="V102" s="1" t="s">
+      <c r="V102" s="4" t="s">
         <v>583</v>
       </c>
     </row>
@@ -9178,16 +9193,16 @@
       <c r="F103" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="G103" s="1" t="n">
+      <c r="G103" s="4" t="n">
         <v>0.876339080425447</v>
       </c>
-      <c r="H103" s="1" t="n">
+      <c r="H103" s="4" t="n">
         <v>0.941620983358539</v>
       </c>
-      <c r="I103" s="1" t="n">
+      <c r="I103" s="4" t="n">
         <v>0.993052169009527</v>
       </c>
-      <c r="J103" s="4" t="s">
+      <c r="J103" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K103" s="1" t="s">
@@ -9205,25 +9220,25 @@
       <c r="O103" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P103" s="1" t="n">
+      <c r="P103" s="4" t="n">
         <v>-0.528405405405405</v>
       </c>
-      <c r="Q103" s="1" t="n">
+      <c r="Q103" s="4" t="n">
         <v>0.037751067429781</v>
       </c>
-      <c r="R103" s="1" t="s">
+      <c r="R103" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="S103" s="1" t="n">
+      <c r="S103" s="4" t="n">
         <v>-0.12088456004858</v>
       </c>
-      <c r="T103" s="1" t="s">
+      <c r="T103" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="U103" s="1" t="n">
+      <c r="U103" s="4" t="n">
         <v>-0.206110298633575</v>
       </c>
-      <c r="V103" s="1" t="s">
+      <c r="V103" s="4" t="s">
         <v>589</v>
       </c>
     </row>
@@ -9246,16 +9261,16 @@
       <c r="F104" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G104" s="1" t="n">
+      <c r="G104" s="4" t="n">
         <v>0.808562153583792</v>
       </c>
-      <c r="H104" s="1" t="n">
+      <c r="H104" s="4" t="n">
         <v>0.815764868543581</v>
       </c>
-      <c r="I104" s="1" t="n">
+      <c r="I104" s="4" t="n">
         <v>0.993052169009527</v>
       </c>
-      <c r="J104" s="4" t="s">
+      <c r="J104" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K104" s="1" t="s">
@@ -9273,25 +9288,25 @@
       <c r="O104" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P104" s="1" t="n">
+      <c r="P104" s="4" t="n">
         <v>1.1412</v>
       </c>
-      <c r="Q104" s="1" t="n">
+      <c r="Q104" s="4" t="n">
         <v>0.164435192942619</v>
       </c>
-      <c r="R104" s="1" t="s">
+      <c r="R104" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="S104" s="1" t="n">
+      <c r="S104" s="4" t="n">
         <v>0.271977931261063</v>
       </c>
-      <c r="T104" s="1" t="s">
+      <c r="T104" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="U104" s="1" t="n">
+      <c r="U104" s="4" t="n">
         <v>0.280597507953644</v>
       </c>
-      <c r="V104" s="1" t="s">
+      <c r="V104" s="4" t="s">
         <v>595</v>
       </c>
     </row>
@@ -9314,16 +9329,16 @@
       <c r="F105" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="G105" s="1" t="n">
+      <c r="G105" s="4" t="n">
         <v>0.809975034751664</v>
       </c>
-      <c r="H105" s="1" t="n">
+      <c r="H105" s="4" t="n">
         <v>0.8275227616902</v>
       </c>
-      <c r="I105" s="1" t="n">
+      <c r="I105" s="4" t="n">
         <v>0.993052169009527</v>
       </c>
-      <c r="J105" s="4" t="s">
+      <c r="J105" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K105" s="1" t="s">
@@ -9341,25 +9356,25 @@
       <c r="O105" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P105" s="1" t="n">
+      <c r="P105" s="4" t="n">
         <v>0.520916666666667</v>
       </c>
-      <c r="Q105" s="1" t="n">
+      <c r="Q105" s="4" t="n">
         <v>-0.00995109602808952</v>
       </c>
-      <c r="R105" s="1" t="s">
+      <c r="R105" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="S105" s="1" t="n">
+      <c r="S105" s="4" t="n">
         <v>0.0439101159572601</v>
       </c>
-      <c r="T105" s="1" t="s">
+      <c r="T105" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="U105" s="1" t="n">
+      <c r="U105" s="4" t="n">
         <v>0.417240232229233</v>
       </c>
-      <c r="V105" s="1" t="s">
+      <c r="V105" s="4" t="s">
         <v>601</v>
       </c>
     </row>
@@ -9382,16 +9397,16 @@
       <c r="F106" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="G106" s="1" t="n">
+      <c r="G106" s="4" t="n">
         <v>1.08120452900578</v>
       </c>
-      <c r="H106" s="1" t="n">
+      <c r="H106" s="4" t="n">
         <v>1.32359094973132</v>
       </c>
-      <c r="I106" s="1" t="n">
+      <c r="I106" s="4" t="n">
         <v>0.993052169009527</v>
       </c>
-      <c r="J106" s="4" t="s">
+      <c r="J106" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K106" s="1" t="s">
@@ -9409,25 +9424,25 @@
       <c r="O106" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P106" s="1" t="n">
+      <c r="P106" s="4" t="n">
         <v>1.3482</v>
       </c>
-      <c r="Q106" s="1" t="n">
+      <c r="Q106" s="4" t="n">
         <v>0.842361092567444</v>
       </c>
-      <c r="R106" s="1" t="s">
+      <c r="R106" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="S106" s="1" t="n">
+      <c r="S106" s="4" t="n">
         <v>0.84339839220047</v>
       </c>
-      <c r="T106" s="1" t="s">
+      <c r="T106" s="4" t="s">
         <v>606</v>
       </c>
-      <c r="U106" s="1" t="n">
+      <c r="U106" s="4" t="n">
         <v>0.665503144264221</v>
       </c>
-      <c r="V106" s="1" t="s">
+      <c r="V106" s="4" t="s">
         <v>607</v>
       </c>
     </row>
@@ -9450,16 +9465,16 @@
       <c r="F107" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="G107" s="1" t="n">
+      <c r="G107" s="4" t="n">
         <v>0.825674556313495</v>
       </c>
-      <c r="H107" s="1" t="n">
+      <c r="H107" s="4" t="n">
         <v>0.849954867112602</v>
       </c>
-      <c r="I107" s="1" t="n">
+      <c r="I107" s="4" t="n">
         <v>0.993052169009527</v>
       </c>
-      <c r="J107" s="4" t="s">
+      <c r="J107" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K107" s="1" t="s">
@@ -9477,25 +9492,25 @@
       <c r="O107" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P107" s="1" t="n">
+      <c r="P107" s="4" t="n">
         <v>0.868857142857143</v>
       </c>
-      <c r="Q107" s="1" t="n">
+      <c r="Q107" s="4" t="n">
         <v>0.47870671749115</v>
       </c>
-      <c r="R107" s="1" t="s">
+      <c r="R107" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="S107" s="1" t="n">
+      <c r="S107" s="4" t="n">
         <v>0.471959322690964</v>
       </c>
-      <c r="T107" s="1" t="s">
+      <c r="T107" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="U107" s="1" t="n">
+      <c r="U107" s="4" t="n">
         <v>0.483602702617645</v>
       </c>
-      <c r="V107" s="1" t="s">
+      <c r="V107" s="4" t="s">
         <v>613</v>
       </c>
     </row>
@@ -9518,16 +9533,16 @@
       <c r="F108" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="G108" s="1" t="n">
+      <c r="G108" s="4" t="n">
         <v>0.862030918539084</v>
       </c>
-      <c r="H108" s="1" t="n">
+      <c r="H108" s="4" t="n">
         <v>0.913088722379853</v>
       </c>
-      <c r="I108" s="1" t="n">
+      <c r="I108" s="4" t="n">
         <v>0.993052169009527</v>
       </c>
-      <c r="J108" s="4" t="s">
+      <c r="J108" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K108" s="1" t="s">
@@ -9545,25 +9560,25 @@
       <c r="O108" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P108" s="1" t="n">
+      <c r="P108" s="4" t="n">
         <v>0.869615384615385</v>
       </c>
-      <c r="Q108" s="1" t="n">
+      <c r="Q108" s="4" t="n">
         <v>0.483602702617645</v>
       </c>
-      <c r="R108" s="1" t="s">
+      <c r="R108" s="4" t="s">
         <v>613</v>
       </c>
-      <c r="S108" s="1" t="n">
+      <c r="S108" s="4" t="n">
         <v>0.500855207443237</v>
       </c>
-      <c r="T108" s="1" t="s">
+      <c r="T108" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="U108" s="1" t="n">
+      <c r="U108" s="4" t="n">
         <v>0.582453787326813</v>
       </c>
-      <c r="V108" s="1" t="s">
+      <c r="V108" s="4" t="s">
         <v>617</v>
       </c>
     </row>
@@ -9586,16 +9601,16 @@
       <c r="F109" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="G109" s="1" t="n">
+      <c r="G109" s="4" t="n">
         <v>0.65983449091368</v>
       </c>
-      <c r="H109" s="1" t="n">
+      <c r="H109" s="4" t="n">
         <v>0.686587775609636</v>
       </c>
-      <c r="I109" s="1" t="n">
+      <c r="I109" s="4" t="n">
         <v>0.993052169009527</v>
       </c>
-      <c r="J109" s="4" t="s">
+      <c r="J109" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K109" s="1" t="s">
@@ -9613,25 +9628,25 @@
       <c r="O109" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P109" s="1" t="n">
+      <c r="P109" s="4" t="n">
         <v>1.17833333333333</v>
       </c>
-      <c r="Q109" s="1" t="n">
+      <c r="Q109" s="4" t="n">
         <v>-0.473049163818359</v>
       </c>
-      <c r="R109" s="1" t="s">
+      <c r="R109" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="S109" s="1" t="n">
+      <c r="S109" s="4" t="n">
         <v>-0.294474452733994</v>
       </c>
-      <c r="T109" s="1" t="s">
+      <c r="T109" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="U109" s="1" t="n">
+      <c r="U109" s="4" t="n">
         <v>-0.460454195737839</v>
       </c>
-      <c r="V109" s="1" t="s">
+      <c r="V109" s="4" t="s">
         <v>623</v>
       </c>
     </row>
